--- a/_draft0/tomoGPU.xlsx
+++ b/_draft0/tomoGPU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__TomoNV_Projects\Tomo_GPU2024\_draft0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11ABBB8-18BA-4922-BDE5-78FFC4A4E292}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BAF235-5114-4500-9CA7-0461A8BB4BB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="19860" activeTab="2" xr2:uid="{B3C603CF-1766-43DF-9F47-8A0B621A15C8}"/>
   </bookViews>
@@ -11772,7 +11772,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/_draft0/tomoGPU.xlsx
+++ b/_draft0/tomoGPU.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__TomoNV_Projects\Tomo_GPU2024\_draft0\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F84B2D3-2FF9-4B52-B316-53204C74A271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="19860" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="형상별Mtotal" sheetId="2" r:id="rId1"/>
     <sheet name="임계각별Mtotal" sheetId="3" r:id="rId2"/>
     <sheet name="HW별속도" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,81 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>(12)lucy_50k.obj</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{63A2897E-6A97-402D-A38D-87589C6A5E08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(2)sphere75_3k.obj</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L45" authorId="0" shapeId="0" xr:uid="{81F08735-BA5D-4AD0-AFA1-E473B1B669DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Manikin_rotated.obj
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M45" authorId="0" shapeId="0" xr:uid="{B7D82E3D-3D8E-4B1D-BE4E-C1DE7BAF7A4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>(10)dragon_100k_1.5x.obj</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N45" authorId="0" shapeId="0" xr:uid="{B16AD0FD-29EA-4289-8BF1-0F2EBF0213BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>(11)happy_50k_0.75x.obj</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{016A2E68-B3C1-453D-A665-296AE5C3D18E}">
       <text>
         <r>
           <rPr>
@@ -109,8 +184,85 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B6E58D30-E8F1-4A57-8DD2-57601473309A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일단</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번만</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>측정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
   <si>
     <t>RTX 4090</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,12 +332,6 @@
   </si>
   <si>
     <t># of stream processor(SM)</t>
-  </si>
-  <si>
-    <t>nVidia GTX760</t>
-  </si>
-  <si>
-    <t>0.98/1.03</t>
   </si>
   <si>
     <t>RTX 2060</t>
@@ -314,44 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>(6)</t>
-  </si>
-  <si>
-    <t>(7)</t>
-  </si>
-  <si>
-    <t>(8)</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
-    <t>(10)</t>
-  </si>
-  <si>
-    <t>(11)</t>
-  </si>
-  <si>
-    <t>(12)</t>
-  </si>
-  <si>
     <t>1,502/3,000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,47 +520,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1)cube50_nocut.obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(2)sphere75_3k.obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4)Bunny_69k_2x.obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5)Bunny_69k.stl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(6)Bunny_69k_0.5x.stl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7)Bunny_5k.stl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(8)Bunny_1k.obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(9)manikin_rotated.obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(10)dragon_100k_1.5x.obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(11)happy_50k_0.75x.obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(12)lucy_50k.obj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -584,6 +652,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Slicing SW (3DWOX),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo 차이가 너무 나는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU(4090)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU(2060)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU(2060)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD Ryzen9 5900X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7/4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD Ryzen9 7950X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5/5.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.39/1.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.37/1.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RTX 3080 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.44/1.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel i7-8700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD 7950X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD 5900X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX 2060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX 3080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;CPU spec.&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;GPU spec.&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX 1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#1
+cube</t>
+  </si>
+  <si>
+    <t>#2
+sphere</t>
+  </si>
+  <si>
+    <t>#3
+cone</t>
+  </si>
+  <si>
+    <t>#4
+Bx2</t>
+  </si>
+  <si>
+    <t>#5
+B</t>
+  </si>
+  <si>
+    <t>#6
+Bx0.5</t>
+  </si>
+  <si>
+    <t>#7
+B/5k</t>
+  </si>
+  <si>
+    <t>#8
+B/1k</t>
+  </si>
+  <si>
+    <t>#9
+mnk</t>
+  </si>
+  <si>
+    <t>#10
+drg</t>
+  </si>
+  <si>
+    <t>#11
+Buda</t>
+  </si>
+  <si>
+    <t>#12
+Lucy</t>
+  </si>
+  <si>
+    <t>(1)cube50_nocut.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2)sphere75_3k.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>(3)cone</t>
     </r>
@@ -604,120 +867,56 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>_63k.obj</t>
+      <t>_63k.ply</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Slicing SW (3DWOX),</t>
+    <t>(4)Bunny_69k_2x.ply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mo 차이가 너무 나는데?</t>
+    <t>(5)Bunny_69k.ply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPU(4090)</t>
+    <t>(6)Bunny_69k_0.5x.ply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPU(2060)</t>
+    <t>(7)Bunny_5k.ply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPU(2060)</t>
+    <t>(8)Bunny_1k.ply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6/12</t>
+    <t>(9)manikin_rotated.ply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AMD Ryzen9 5900X</t>
+    <t>(10)dragon_100k_1.5x.ply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.7/4.8</t>
+    <t>(11)happy_50k_0.75x.ply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD Ryzen9 7950X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5/5.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16/32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTX1050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.39/1.52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.37/1.68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RTX 3080 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.44/1.71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intel i7-8700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD 7950X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD 5900X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTX 2060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTX 3080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;CPU spec.&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;GPU spec.&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTX 1050</t>
+    <t>(12)lucy_50k.ply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +1066,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -894,7 +1111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -960,46 +1177,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1078,7 +1255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,7 +1346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1184,22 +1361,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1220,13 +1397,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1235,19 +1412,40 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,28 +1454,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1357,7 +1540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1575,40 +1757,52 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(1)cube</c:v>
+                    <c:v>#1
+cube</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>(2)sphere</c:v>
+                    <c:v>#2
+sphere</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>(3)cone</c:v>
+                    <c:v>#3
+cone</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>(4)Bx2</c:v>
+                    <c:v>#4
+Bx2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>(5)B</c:v>
+                    <c:v>#5
+B</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>(6)Bx0.5</c:v>
+                    <c:v>#6
+Bx0.5</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>(7)B/5k</c:v>
+                    <c:v>#7
+B/5k</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>(8)B/1k</c:v>
+                    <c:v>#8
+B/1k</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>(9)mnk</c:v>
+                    <c:v>#9
+mnk</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>(10)drg</c:v>
+                    <c:v>#10
+drg</c:v>
                   </c:pt>
                   <c:pt idx="50">
-                    <c:v>(11)Buda</c:v>
+                    <c:v>#11
+Buda</c:v>
                   </c:pt>
                   <c:pt idx="55">
-                    <c:v>(12)Lucy</c:v>
+                    <c:v>#12
+Lucy</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1879,40 +2073,52 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(1)cube</c:v>
+                    <c:v>#1
+cube</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>(2)sphere</c:v>
+                    <c:v>#2
+sphere</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>(3)cone</c:v>
+                    <c:v>#3
+cone</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>(4)Bx2</c:v>
+                    <c:v>#4
+Bx2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>(5)B</c:v>
+                    <c:v>#5
+B</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>(6)Bx0.5</c:v>
+                    <c:v>#6
+Bx0.5</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>(7)B/5k</c:v>
+                    <c:v>#7
+B/5k</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>(8)B/1k</c:v>
+                    <c:v>#8
+B/1k</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>(9)mnk</c:v>
+                    <c:v>#9
+mnk</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>(10)drg</c:v>
+                    <c:v>#10
+drg</c:v>
                   </c:pt>
                   <c:pt idx="50">
-                    <c:v>(11)Buda</c:v>
+                    <c:v>#11
+Buda</c:v>
                   </c:pt>
                   <c:pt idx="55">
-                    <c:v>(12)Lucy</c:v>
+                    <c:v>#12
+Lucy</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2167,7 +2373,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2199,7 +2404,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2207,6 +2411,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3150,38 +3355,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3213,49 +3387,60 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>#1
+cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>#2
+sphere</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>#3
+cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>#4
+Bx2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>#5
+B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>#6
+Bx0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>#7
+B/5k</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>#8
+B/1k</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>#9
+mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>#10
+drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>#11
+Buda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3313,7 +3498,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HW별속도!$A$3</c:f>
+              <c:f>HW별속도!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3333,53 +3518,64 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>#1
+cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>#2
+sphere</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>#3
+cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>#4
+Bx2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>#5
+B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>#6
+Bx0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>#7
+B/5k</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>#8
+B/1k</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>#9
+mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>#10
+drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>#11
+Buda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HW별속도!$B$3:$M$3</c:f>
+              <c:f>HW별속도!$B$26:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3433,7 +3629,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>HW별속도!$A$4</c:f>
+              <c:f>HW별속도!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3453,53 +3649,64 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>#1
+cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>#2
+sphere</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>#3
+cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>#4
+Bx2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>#5
+B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>#6
+Bx0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>#7
+B/5k</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>#8
+B/1k</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>#9
+mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>#10
+drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>#11
+Buda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HW별속도!$B$4:$M$4</c:f>
+              <c:f>HW별속도!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3553,7 +3760,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>HW별속도!$A$5</c:f>
+              <c:f>HW별속도!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3573,53 +3780,64 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>#1
+cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>#2
+sphere</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>#3
+cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>#4
+Bx2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>#5
+B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>#6
+Bx0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>#7
+B/5k</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>#8
+B/1k</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>#9
+mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>#10
+drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>#11
+Buda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HW별속도!$B$5:$M$5</c:f>
+              <c:f>HW별속도!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3673,7 +3891,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>HW별속도!$A$6</c:f>
+              <c:f>HW별속도!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3693,53 +3911,64 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>#1
+cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>#2
+sphere</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>#3
+cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>#4
+Bx2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>#5
+B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>#6
+Bx0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>#7
+B/5k</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>#8
+B/1k</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>#9
+mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>#10
+drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>#11
+Buda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HW별속도!$B$6:$M$6</c:f>
+              <c:f>HW별속도!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3793,7 +4022,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>HW별속도!$A$7</c:f>
+              <c:f>HW별속도!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3813,53 +4042,64 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>#1
+cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>#2
+sphere</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>#3
+cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>#4
+Bx2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>#5
+B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>#6
+Bx0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>#7
+B/5k</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>#8
+B/1k</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>#9
+mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>#10
+drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>#11
+Buda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HW별속도!$B$7:$M$7</c:f>
+              <c:f>HW별속도!$B$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3913,7 +4153,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>HW별속도!$A$8</c:f>
+              <c:f>HW별속도!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3935,53 +4175,64 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>#1
+cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>#2
+sphere</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>#3
+cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>#4
+Bx2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>#5
+B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>#6
+Bx0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>#7
+B/5k</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>#8
+B/1k</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>#9
+mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>#10
+drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>#11
+Buda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HW별속도!$B$8:$M$8</c:f>
+              <c:f>HW별속도!$B$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4072,16 +4323,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
@@ -4097,6 +4348,7 @@
       <c:valAx>
         <c:axId val="291068448"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4131,16 +4383,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
@@ -4160,7 +4412,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4174,16 +4425,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ko-KR"/>
@@ -4214,7 +4465,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1050">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
@@ -5911,7 +6165,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1303020</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -5996,15 +6250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>851647</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>197222</xdr:rowOff>
+      <xdr:colOff>457509</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>136635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>502024</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>197222</xdr:rowOff>
+      <xdr:colOff>107886</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6328,128 +6582,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AE61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.875" customWidth="1"/>
-    <col min="6" max="6" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31">
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B1" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
       <c r="M1" s="46"/>
       <c r="Y1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="22"/>
     </row>
-    <row r="2" spans="2:31">
-      <c r="B2" s="61"/>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
       <c r="F2" s="62"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="62"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="63"/>
+      <c r="P2" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="62"/>
+      <c r="W2" t="str">
+        <f>C4&amp;D4</f>
+        <v>#1
+cube</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="55"/>
-      <c r="W2" t="str">
-        <f>B4&amp;D4</f>
-        <v>(1)cube</v>
-      </c>
-    </row>
-    <row r="3" spans="2:31">
-      <c r="B3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M3" s="42"/>
       <c r="N3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R3" s="42"/>
       <c r="X3" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y3" s="18">
         <f>G4</f>
@@ -6460,16 +6713,14 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="16.899999999999999" customHeight="1">
-      <c r="B4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>67</v>
-      </c>
+    <row r="4" spans="2:31" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="7">
         <v>0.66666666666666663</v>
       </c>
@@ -6509,7 +6760,7 @@
       </c>
       <c r="R4" s="43"/>
       <c r="X4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="18">
         <f>I4</f>
@@ -6520,21 +6771,19 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="16.899999999999999" customHeight="1">
-      <c r="B5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>68</v>
-      </c>
+    <row r="5" spans="2:31" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G5" s="9">
         <v>58.8</v>
@@ -6569,7 +6818,7 @@
       </c>
       <c r="R5" s="43"/>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y5" s="18">
         <f>K4</f>
@@ -6580,16 +6829,14 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="16.899999999999999" customHeight="1">
-      <c r="B6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="6" spans="2:31" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
         <v>2</v>
       </c>
@@ -6628,24 +6875,22 @@
         <v>3.24</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
     </row>
-    <row r="7" spans="2:31" ht="16.899999999999999" customHeight="1">
-      <c r="B7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="57" t="s">
+    <row r="7" spans="2:31" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="64" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -6684,21 +6929,20 @@
       </c>
       <c r="S7" s="21"/>
       <c r="W7" t="str">
-        <f>B5&amp;D5</f>
-        <v>(2)sphere</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31" ht="25.5">
-      <c r="B8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="57"/>
+        <f>C5&amp;D5</f>
+        <v>#2
+sphere</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B8" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
@@ -6734,7 +6978,7 @@
         <v>3.09</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y8" s="18">
         <f>G5</f>
@@ -6745,17 +6989,15 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="2:31" ht="25.5">
-      <c r="B9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="57"/>
+    <row r="9" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B9" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
@@ -6791,7 +7033,7 @@
         <v>0.75</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y9" s="18">
         <f>I5</f>
@@ -6802,16 +7044,14 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="51">
-      <c r="B10" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>64</v>
-      </c>
+    <row r="10" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B10" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
@@ -6850,7 +7090,7 @@
         <v>2.84</v>
       </c>
       <c r="X10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y10" s="18">
         <f>K5</f>
@@ -6861,16 +7101,14 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="51">
-      <c r="B11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>65</v>
-      </c>
+    <row r="11" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B11" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
@@ -6913,21 +7151,19 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
     </row>
-    <row r="12" spans="2:31" ht="63.75">
-      <c r="B12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>71</v>
-      </c>
+    <row r="12" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B12" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="9">
         <v>22.3</v>
@@ -6961,25 +7197,24 @@
         <v>5.33</v>
       </c>
       <c r="W12" t="str">
-        <f>B6&amp;D6</f>
-        <v>(3)cone</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31" ht="63.75">
-      <c r="B13" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>87</v>
-      </c>
+        <f>C6&amp;D6</f>
+        <v>#3
+cone</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B13" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="9">
         <v>96</v>
@@ -7013,7 +7248,7 @@
         <v>13.85</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y13" s="18">
         <f>G6</f>
@@ -7024,21 +7259,19 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="63.75">
-      <c r="B14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>88</v>
-      </c>
+    <row r="14" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B14" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="9">
         <v>38.299999999999997</v>
@@ -7073,7 +7306,7 @@
       </c>
       <c r="R14" s="10"/>
       <c r="X14" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y14" s="18">
         <f>I6</f>
@@ -7084,21 +7317,19 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="63.75">
-      <c r="B15" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>66</v>
-      </c>
+    <row r="15" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B15" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="9">
         <v>50.9</v>
@@ -7132,7 +7363,7 @@
         <v>5.38</v>
       </c>
       <c r="X15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y15" s="18">
         <f>K6</f>
@@ -7143,22 +7374,23 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="16" spans="2:31">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.4">
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
     </row>
-    <row r="17" spans="2:26" ht="39" customHeight="1">
-      <c r="C17" s="26"/>
+    <row r="17" spans="2:26" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="26"/>
       <c r="W17" t="str">
-        <f>B7&amp;D7</f>
-        <v>(4)Bx2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26">
+        <f>C7&amp;D7</f>
+        <v>#4
+Bx2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X18" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="18">
         <f>G7</f>
@@ -7169,9 +7401,9 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X19" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y19" s="18">
         <f>I7</f>
@@ -7182,11 +7414,11 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="20" spans="2:26">
-      <c r="B20" s="13"/>
-      <c r="C20" s="25"/>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B20" s="25"/>
+      <c r="C20" s="13"/>
       <c r="X20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y20" s="18">
         <f>K7</f>
@@ -7197,21 +7429,22 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W22" t="str">
-        <f>B8&amp;D8</f>
-        <v>(5)B</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26">
+        <f>C8&amp;D8</f>
+        <v>#5
+B</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X23" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y23" s="18">
         <f>G8</f>
@@ -7222,9 +7455,9 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X24" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y24" s="18">
         <f>I8</f>
@@ -7235,9 +7468,9 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y25" s="18">
         <f>K8</f>
@@ -7248,21 +7481,22 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="26" spans="2:26">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W27" t="str">
-        <f>B9&amp;D9</f>
-        <v>(6)Bx0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26">
+        <f>C9&amp;D9</f>
+        <v>#6
+Bx0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X28" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y28" s="18">
         <f>G9</f>
@@ -7273,9 +7507,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X29" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y29" s="18">
         <f>I9</f>
@@ -7286,9 +7520,9 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="30" spans="2:26">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y30" s="18">
         <f>K9</f>
@@ -7299,21 +7533,22 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="2:26">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W32" t="str">
-        <f>B10&amp;D10</f>
-        <v>(7)B/5k</v>
-      </c>
-    </row>
-    <row r="33" spans="6:26">
+        <f>C10&amp;D10</f>
+        <v>#7
+B/5k</v>
+      </c>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X33" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y33" s="18">
         <f>G10</f>
@@ -7324,9 +7559,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="6:26">
+    <row r="34" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X34" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y34" s="18">
         <f>I10</f>
@@ -7337,9 +7572,9 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="35" spans="6:26">
+    <row r="35" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y35" s="18">
         <f>K10</f>
@@ -7350,24 +7585,25 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="36" spans="6:26">
+    <row r="36" spans="3:26" x14ac:dyDescent="0.4">
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
     </row>
-    <row r="37" spans="6:26">
+    <row r="37" spans="3:26" x14ac:dyDescent="0.4">
       <c r="W37" t="str">
-        <f>B11&amp;D11</f>
-        <v>(8)B/1k</v>
-      </c>
-    </row>
-    <row r="38" spans="6:26">
+        <f>C11&amp;D11</f>
+        <v>#8
+B/1k</v>
+      </c>
+    </row>
+    <row r="38" spans="3:26" x14ac:dyDescent="0.4">
       <c r="F38" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="X38" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y38" s="18">
         <f>G11</f>
@@ -7378,9 +7614,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="6:26">
+    <row r="39" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X39" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y39" s="18">
         <f>I11</f>
@@ -7391,9 +7627,9 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="40" spans="6:26">
+    <row r="40" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y40" s="18">
         <f>K11</f>
@@ -7404,21 +7640,22 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="41" spans="6:26">
+    <row r="41" spans="3:26" x14ac:dyDescent="0.4">
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
     </row>
-    <row r="42" spans="6:26">
+    <row r="42" spans="3:26" x14ac:dyDescent="0.4">
       <c r="W42" t="str">
-        <f>B12&amp;D12</f>
-        <v>(9)mnk</v>
-      </c>
-    </row>
-    <row r="43" spans="6:26">
+        <f>C12&amp;D12</f>
+        <v>#9
+mnk</v>
+      </c>
+    </row>
+    <row r="43" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X43" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y43" s="18">
         <f>G12</f>
@@ -7429,9 +7666,48 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="44" spans="6:26">
+    <row r="44" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C44" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="X44" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y44" s="18">
         <f>I12</f>
@@ -7442,9 +7718,48 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="45" spans="6:26">
+    <row r="45" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C45" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="X45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y45" s="18">
         <f>K12</f>
@@ -7455,21 +7770,94 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="46" spans="6:26">
+    <row r="46" spans="3:26" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D46" s="56" t="str">
+        <f>D44&amp;CHAR(10)&amp;D45</f>
+        <v>#1
+cube</v>
+      </c>
+      <c r="E46" s="56" t="str">
+        <f t="shared" ref="E46:O46" si="0">E44&amp;CHAR(10)&amp;E45</f>
+        <v>#2
+sphere</v>
+      </c>
+      <c r="F46" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>#3
+cone</v>
+      </c>
+      <c r="G46" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>#4
+Bx2</v>
+      </c>
+      <c r="H46" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>#5
+B</v>
+      </c>
+      <c r="I46" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>#6
+Bx0.5</v>
+      </c>
+      <c r="J46" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>#7
+B/5k</v>
+      </c>
+      <c r="K46" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>#8
+B/1k</v>
+      </c>
+      <c r="L46" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>#9
+mnk</v>
+      </c>
+      <c r="M46" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>#10
+drg</v>
+      </c>
+      <c r="N46" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>#11
+Buda</v>
+      </c>
+      <c r="O46" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>#12
+Lucy</v>
+      </c>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
     </row>
-    <row r="47" spans="6:26">
+    <row r="47" spans="3:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
       <c r="W47" t="str">
-        <f>B13&amp;D13</f>
-        <v>(10)drg</v>
-      </c>
-    </row>
-    <row r="48" spans="6:26">
+        <f>C13&amp;D13</f>
+        <v>#10
+drg</v>
+      </c>
+    </row>
+    <row r="48" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X48" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y48" s="18">
         <f>G13</f>
@@ -7480,9 +7868,9 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="49" spans="23:26">
+    <row r="49" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X49" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y49" s="18">
         <f>I13</f>
@@ -7493,9 +7881,9 @@
         <v>17.940000000000001</v>
       </c>
     </row>
-    <row r="50" spans="23:26">
+    <row r="50" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y50" s="18">
         <f>K13</f>
@@ -7506,21 +7894,22 @@
         <v>14.62</v>
       </c>
     </row>
-    <row r="51" spans="23:26">
+    <row r="51" spans="23:26" x14ac:dyDescent="0.4">
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
     </row>
-    <row r="52" spans="23:26">
+    <row r="52" spans="23:26" x14ac:dyDescent="0.4">
       <c r="W52" t="str">
-        <f>B14&amp;D14</f>
-        <v>(11)Buda</v>
-      </c>
-    </row>
-    <row r="53" spans="23:26">
+        <f>C14&amp;D14</f>
+        <v>#11
+Buda</v>
+      </c>
+    </row>
+    <row r="53" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X53" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y53" s="18">
         <f>G14</f>
@@ -7531,9 +7920,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="23:26">
+    <row r="54" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X54" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y54" s="18">
         <f>I14</f>
@@ -7544,9 +7933,9 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="55" spans="23:26">
+    <row r="55" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y55" s="18">
         <f>K14</f>
@@ -7557,21 +7946,22 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="56" spans="23:26">
+    <row r="56" spans="23:26" x14ac:dyDescent="0.4">
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
     </row>
-    <row r="57" spans="23:26">
+    <row r="57" spans="23:26" x14ac:dyDescent="0.4">
       <c r="W57" t="str">
-        <f>B15&amp;D15</f>
-        <v>(12)Lucy</v>
-      </c>
-    </row>
-    <row r="58" spans="23:26">
+        <f>C15&amp;D15</f>
+        <v>#12
+Lucy</v>
+      </c>
+    </row>
+    <row r="58" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X58" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y58" s="18">
         <f>G15</f>
@@ -7582,9 +7972,9 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="59" spans="23:26">
+    <row r="59" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X59" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y59" s="18">
         <f>I15</f>
@@ -7595,9 +7985,9 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="60" spans="23:26">
+    <row r="60" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y60" s="18">
         <f>K15</f>
@@ -7608,7 +7998,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="61" spans="23:26">
+    <row r="61" spans="23:26" x14ac:dyDescent="0.4">
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
@@ -7627,7 +8017,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S6" r:id="rId1"/>
+    <hyperlink ref="S6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7637,7 +8027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7647,80 +8037,80 @@
       <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="29" customWidth="1"/>
     <col min="2" max="2" width="9" style="29"/>
-    <col min="3" max="3" width="12.875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1">
+    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28"/>
       <c r="B2" s="35"/>
-      <c r="C2" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="63"/>
-      <c r="J2" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="63"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="C2" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="J2" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="66"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="29" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B4" s="33">
         <v>0</v>
@@ -7756,9 +8146,9 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B5" s="33">
         <v>10</v>
@@ -7794,9 +8184,9 @@
         <v>12.44</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B6" s="33">
         <v>20</v>
@@ -7832,9 +8222,9 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B7" s="33">
         <v>30</v>
@@ -7870,9 +8260,9 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B8" s="33">
         <v>40</v>
@@ -7908,9 +8298,9 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B9" s="33">
         <v>50</v>
@@ -7946,9 +8336,9 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B10" s="33">
         <v>60</v>
@@ -7984,9 +8374,9 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B11" s="33">
         <v>70</v>
@@ -8022,9 +8412,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B12" s="33">
         <v>80</v>
@@ -8060,9 +8450,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B13" s="33">
         <v>90</v>
@@ -8098,12 +8488,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C14" s="34"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="29" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -8122,60 +8512,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B1" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
       <c r="B2">
@@ -8215,400 +8605,390 @@
         <v>522.13234699999998</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B3">
+        <v>78.462999999999994</v>
+      </c>
+      <c r="C3">
+        <v>81.444996000000003</v>
+      </c>
+      <c r="D3">
+        <v>85.511577000000003</v>
+      </c>
+      <c r="E3">
+        <v>186.17354499999999</v>
+      </c>
+      <c r="F3">
+        <v>159.563131</v>
+      </c>
+      <c r="G3">
+        <v>154.3218</v>
+      </c>
+      <c r="H3">
+        <v>82.155000000000001</v>
+      </c>
+      <c r="I3">
+        <v>77.765511000000004</v>
+      </c>
+      <c r="J3">
+        <v>93.589000999999996</v>
+      </c>
+      <c r="K3">
+        <v>231.30753200000001</v>
+      </c>
+      <c r="L3">
+        <v>135.230996</v>
+      </c>
+      <c r="M3">
+        <v>144.118056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4">
+        <v>235.02652699999999</v>
+      </c>
+      <c r="C4">
+        <v>230.797279</v>
+      </c>
+      <c r="D4">
+        <v>294.80828000000002</v>
+      </c>
+      <c r="E4">
+        <v>288.65893299999999</v>
+      </c>
+      <c r="F4">
+        <v>256.95104500000002</v>
+      </c>
+      <c r="G4">
+        <v>245.74983399999999</v>
+      </c>
+      <c r="H4">
+        <v>229.26749000000001</v>
+      </c>
+      <c r="I4">
+        <v>227.37109799999999</v>
+      </c>
+      <c r="J4">
+        <v>234.18002100000001</v>
+      </c>
+      <c r="K4">
+        <v>327.41771799999998</v>
+      </c>
+      <c r="L4">
+        <v>264.48448300000001</v>
+      </c>
+      <c r="M4">
+        <v>303.27925099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>47.207138</v>
+      </c>
+      <c r="C5">
+        <v>45.992707000000003</v>
+      </c>
+      <c r="D5">
+        <v>65.453965999999994</v>
+      </c>
+      <c r="E5">
+        <v>65.507868000000002</v>
+      </c>
+      <c r="F5">
+        <v>54.412488000000003</v>
+      </c>
+      <c r="G5">
+        <v>49.344835000000003</v>
+      </c>
+      <c r="H5">
+        <v>45.118394000000002</v>
+      </c>
+      <c r="I5">
+        <v>44.762058000000003</v>
+      </c>
+      <c r="J5">
+        <v>46.631194999999998</v>
+      </c>
+      <c r="K5">
+        <v>75.651523999999995</v>
+      </c>
+      <c r="L5">
+        <v>55.733877</v>
+      </c>
+      <c r="M5">
+        <v>67.061312999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>19.735993000000001</v>
+      </c>
+      <c r="C6">
+        <v>19.526415</v>
+      </c>
+      <c r="D6">
+        <v>26.100653000000001</v>
+      </c>
+      <c r="E6">
+        <v>25.044993000000002</v>
+      </c>
+      <c r="F6">
+        <v>21.864273000000001</v>
+      </c>
+      <c r="G6">
+        <v>20.539121999999999</v>
+      </c>
+      <c r="H6">
+        <v>19.012808</v>
+      </c>
+      <c r="I6">
+        <v>18.830888999999999</v>
+      </c>
+      <c r="J6">
+        <v>19.637509999999999</v>
+      </c>
+      <c r="K6">
+        <v>28.581313000000002</v>
+      </c>
+      <c r="L6">
+        <v>22.172401000000001</v>
+      </c>
+      <c r="M6">
+        <v>26.024286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10.012051</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10.522000999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12.404813000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12.422428</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11.208766000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10.700714</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.8182170000000006</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.7393470000000004</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10.012543000000001</v>
+      </c>
+      <c r="K7">
+        <v>14.289018</v>
+      </c>
+      <c r="L7">
+        <v>12.486274</v>
+      </c>
+      <c r="M7">
+        <v>12.846999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="68"/>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="68"/>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="68"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="58">
         <v>87.884372999999997</v>
       </c>
-      <c r="C3">
+      <c r="C26" s="58">
         <v>91.324453000000005</v>
       </c>
-      <c r="D3">
+      <c r="D26" s="58">
         <v>96.746105999999997</v>
       </c>
-      <c r="E3">
+      <c r="E26" s="58">
         <v>185.39295899999999</v>
       </c>
-      <c r="F3">
+      <c r="F26" s="58">
         <v>185.65374499999999</v>
       </c>
-      <c r="G3">
+      <c r="G26" s="58">
         <v>172.71875600000001</v>
       </c>
-      <c r="H3">
+      <c r="H26" s="58">
         <v>93.143704999999997</v>
       </c>
-      <c r="I3">
+      <c r="I26" s="58">
         <v>88.837778999999998</v>
       </c>
-      <c r="J3">
+      <c r="J26" s="58">
         <v>95.034284</v>
       </c>
-      <c r="K3">
+      <c r="K26" s="58">
         <v>182.50201799999999</v>
       </c>
-      <c r="L3">
+      <c r="L26" s="58">
         <v>126.26885900000001</v>
       </c>
-      <c r="M3">
+      <c r="M26" s="58">
         <v>135.31586100000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4">
-        <v>78.462999999999994</v>
-      </c>
-      <c r="C4">
-        <v>81.444996000000003</v>
-      </c>
-      <c r="D4">
-        <v>85.511577000000003</v>
-      </c>
-      <c r="E4">
-        <v>186.17354499999999</v>
-      </c>
-      <c r="F4">
-        <v>159.563131</v>
-      </c>
-      <c r="G4">
-        <v>154.3218</v>
-      </c>
-      <c r="H4">
-        <v>82.155000000000001</v>
-      </c>
-      <c r="I4">
-        <v>77.765511000000004</v>
-      </c>
-      <c r="J4">
-        <v>93.589000999999996</v>
-      </c>
-      <c r="K4">
-        <v>231.30753200000001</v>
-      </c>
-      <c r="L4">
-        <v>135.230996</v>
-      </c>
-      <c r="M4">
-        <v>144.118056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5">
-        <v>235.02652699999999</v>
-      </c>
-      <c r="C5">
-        <v>230.797279</v>
-      </c>
-      <c r="D5">
-        <v>294.80828000000002</v>
-      </c>
-      <c r="E5">
-        <v>288.65893299999999</v>
-      </c>
-      <c r="F5">
-        <v>256.95104500000002</v>
-      </c>
-      <c r="G5">
-        <v>245.74983399999999</v>
-      </c>
-      <c r="H5">
-        <v>229.26749000000001</v>
-      </c>
-      <c r="I5">
-        <v>227.37109799999999</v>
-      </c>
-      <c r="J5">
-        <v>234.18002100000001</v>
-      </c>
-      <c r="K5">
-        <v>327.41771799999998</v>
-      </c>
-      <c r="L5">
-        <v>264.48448300000001</v>
-      </c>
-      <c r="M5">
-        <v>303.27925099999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6">
-        <v>47.207138</v>
-      </c>
-      <c r="C6">
-        <v>45.992707000000003</v>
-      </c>
-      <c r="D6">
-        <v>65.453965999999994</v>
-      </c>
-      <c r="E6">
-        <v>65.507868000000002</v>
-      </c>
-      <c r="F6">
-        <v>54.412488000000003</v>
-      </c>
-      <c r="G6">
-        <v>49.344835000000003</v>
-      </c>
-      <c r="H6">
-        <v>45.118394000000002</v>
-      </c>
-      <c r="I6">
-        <v>44.762058000000003</v>
-      </c>
-      <c r="J6">
-        <v>46.631194999999998</v>
-      </c>
-      <c r="K6">
-        <v>75.651523999999995</v>
-      </c>
-      <c r="L6">
-        <v>55.733877</v>
-      </c>
-      <c r="M6">
-        <v>67.061312999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7">
-        <v>19.735993000000001</v>
-      </c>
-      <c r="C7">
-        <v>19.526415</v>
-      </c>
-      <c r="D7">
-        <v>26.100653000000001</v>
-      </c>
-      <c r="E7">
-        <v>25.044993000000002</v>
-      </c>
-      <c r="F7">
-        <v>21.864273000000001</v>
-      </c>
-      <c r="G7">
-        <v>20.539121999999999</v>
-      </c>
-      <c r="H7">
-        <v>19.012808</v>
-      </c>
-      <c r="I7">
-        <v>18.830888999999999</v>
-      </c>
-      <c r="J7">
-        <v>19.637509999999999</v>
-      </c>
-      <c r="K7">
-        <v>28.581313000000002</v>
-      </c>
-      <c r="L7">
-        <v>22.172401000000001</v>
-      </c>
-      <c r="M7">
-        <v>26.024286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10.012051</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10.522000999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>12.404813000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12.422428</v>
-      </c>
-      <c r="F8" s="1">
-        <v>11.208766000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10.700714</v>
-      </c>
-      <c r="H8" s="1">
-        <v>9.8182170000000006</v>
-      </c>
-      <c r="I8" s="1">
-        <v>9.7393470000000004</v>
-      </c>
-      <c r="J8" s="1">
-        <v>10.012543000000001</v>
-      </c>
-      <c r="K8">
-        <v>14.289018</v>
-      </c>
-      <c r="L8">
-        <v>12.486274</v>
-      </c>
-      <c r="M8">
-        <v>12.846999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="25.5">
-      <c r="A12" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A14" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A15" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A16" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="65"/>
-    </row>
-    <row r="21" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A21" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="54">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="2">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A23" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A24" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="4">
-        <v>8704</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="53.25" thickBot="1">
-      <c r="A25" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="4">
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="44" spans="12:12">
-      <c r="L44" s="1"/>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/_draft0/tomoGPU.xlsx
+++ b/_draft0/tomoGPU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__TomoNV_Projects\Tomo_GPU2024\_draft0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F84B2D3-2FF9-4B52-B316-53204C74A271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4540A3F1-AF91-408C-A372-6D167910B3FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
   <si>
     <t>RTX 4090</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,15 +271,9 @@
     <t>50x50x50</t>
   </si>
   <si>
-    <t>3,152/6,300</t>
-  </si>
-  <si>
     <t>100x100x100</t>
   </si>
   <si>
-    <t>34,834/69,662</t>
-  </si>
-  <si>
     <t>151x117x150</t>
   </si>
   <si>
@@ -289,19 +283,10 @@
     <t>38x30x37</t>
   </si>
   <si>
-    <t>2,502/5,000</t>
-  </si>
-  <si>
     <t>75x58x74</t>
   </si>
   <si>
-    <t>502/1,000</t>
-  </si>
-  <si>
     <t>76x58x74</t>
-  </si>
-  <si>
-    <t>6,882/13,672</t>
   </si>
   <si>
     <t>Name</t>
@@ -408,26 +393,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50,062/99,999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>167x75x118</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25,006/49,999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>104x60x180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24,943/49,944</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>52x52x128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,19 +433,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,502/3,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>75x75x75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dimension[mm^3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nV/nE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -847,6 +812,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(4)Bunny_69k_2x.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5)Bunny_69k.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6)Bunny_69k_0.5x.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7)Bunny_5k.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8)Bunny_1k.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(9)manikin_rotated.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10)dragon_100k_1.5x.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(11)happy_50k_0.75x.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(12)lucy_50k.ply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>(3)cone</t>
     </r>
@@ -854,7 +855,6 @@
       <rPr>
         <b/>
         <sz val="8"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -863,7 +863,6 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -872,39 +871,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(4)Bunny_69k_2x.ply</t>
+    <t>nV/
+nE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(5)Bunny_69k.ply</t>
+    <t>8/
+12</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,502/
+3,000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(6)Bunny_69k_0.5x.ply</t>
+    <t>3,152/
+6,300</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,834/
+69,662</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,502/
+5,000</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>502/
+1,000</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,882/
+13,672</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,062/
+99,999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(7)Bunny_5k.ply</t>
+    <t>24,943/
+49,944</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(8)Bunny_1k.ply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(9)manikin_rotated.ply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(10)dragon_100k_1.5x.ply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(11)happy_50k_0.75x.ply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(12)lucy_50k.ply</t>
+    <t>25,006/
+49,999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +934,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,12 +1040,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -1045,19 +1057,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1081,6 +1080,40 @@
       <strike/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1255,7 +1288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,12 +1307,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1291,9 +1318,6 @@
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1337,9 +1361,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1358,7 +1379,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1370,10 +1391,7 @@
     <xf numFmtId="177" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,7 +1409,7 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1403,10 +1421,10 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,7 +1436,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1430,16 +1448,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1448,7 +1481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1461,6 +1494,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6586,12 +6622,13 @@
   <dimension ref="B1:AE61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.296875" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="5.19921875" customWidth="1"/>
@@ -6599,30 +6636,30 @@
   <sheetData>
     <row r="1" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B1" s="62" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
       <c r="G1" s="65" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H1" s="62"/>
       <c r="I1" s="62" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
-      <c r="M1" s="46"/>
+      <c r="M1" s="41"/>
       <c r="Y1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Z1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B2" s="62"/>
@@ -6633,20 +6670,20 @@
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J2" s="62"/>
       <c r="K2" s="62" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L2" s="62"/>
-      <c r="M2" s="46"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="62" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O2" s="63"/>
       <c r="P2" s="62" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="62"/>
       <c r="W2" t="str">
@@ -6655,279 +6692,279 @@
 cube</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+    <row r="3" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="42"/>
-      <c r="X3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="18">
+      <c r="C3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="37"/>
+      <c r="X3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="15">
         <f>G4</f>
         <v>35.6</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="Z3" s="15">
         <f>H4</f>
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F4" s="12" t="s">
+    <row r="4" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B4" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>35.6</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>3.2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <v>35.03</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="13">
         <v>2.4900000000000002</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="39">
         <v>35.03</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="39">
         <v>1.37</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44">
+      <c r="M4" s="38"/>
+      <c r="N4" s="39">
         <v>35.03</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="43">
         <v>1.37</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="13">
         <v>33.54</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="13">
         <v>1.37</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="X4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="18">
+      <c r="R4" s="38"/>
+      <c r="X4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="15">
         <f>I4</f>
         <v>35.03</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="15">
         <f>J4</f>
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="9">
+    <row r="5" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B5" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7">
         <v>58.8</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>2.4</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="13">
         <v>54.59</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="13">
         <v>2.23</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="39">
         <v>52.83</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="39">
         <v>1.53</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44">
+      <c r="M5" s="38"/>
+      <c r="N5" s="39">
         <v>52.83</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="43">
         <v>1.53</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="13">
         <v>50.08</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="13">
         <v>1.43</v>
       </c>
-      <c r="R5" s="43"/>
+      <c r="R5" s="38"/>
       <c r="X5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y5" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="15">
         <f>K4</f>
         <v>35.03</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="15">
         <f>L4</f>
         <v>1.37</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+    <row r="6" spans="2:31" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="B6" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="7">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>67.66</v>
+      </c>
+      <c r="J6" s="13">
+        <v>7.45</v>
+      </c>
+      <c r="K6" s="39">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="L6" s="39">
+        <v>3.14</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="39">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="O6" s="43">
+        <v>3.14</v>
+      </c>
+      <c r="P6" s="13">
+        <v>60.26</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>3.24</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" spans="2:31" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="B7" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="9">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="H6" s="9">
-        <v>9.1</v>
-      </c>
-      <c r="I6" s="16">
-        <v>67.66</v>
-      </c>
-      <c r="J6" s="16">
-        <v>7.45</v>
-      </c>
-      <c r="K6" s="44">
-        <v>67.069999999999993</v>
-      </c>
-      <c r="L6" s="44">
-        <v>3.14</v>
-      </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44">
-        <v>67.069999999999993</v>
-      </c>
-      <c r="O6" s="48">
-        <v>3.14</v>
-      </c>
-      <c r="P6" s="16">
-        <v>60.26</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>3.24</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-    </row>
-    <row r="7" spans="2:31" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>181.4</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>26.6</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="13">
         <v>170.31</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <v>20.92</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="39">
         <v>170.67</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="39">
         <v>17.190000000000001</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44">
+      <c r="M7" s="38"/>
+      <c r="N7" s="39">
         <v>170.67</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="43">
         <v>17.190000000000001</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="13">
         <v>170.12</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="13">
         <v>16.850000000000001</v>
       </c>
-      <c r="S7" s="21"/>
+      <c r="S7" s="18"/>
       <c r="W7" t="str">
         <f>C5&amp;D5</f>
         <v>#2
@@ -6935,265 +6972,265 @@
       </c>
     </row>
     <row r="8" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B8" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="60"/>
       <c r="E8" s="64"/>
-      <c r="F8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
         <v>29</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="13">
         <v>27.07</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="13">
         <v>3.89</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="39">
         <v>26.86</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="39">
         <v>3.11</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="44">
+      <c r="M8" s="38"/>
+      <c r="N8" s="39">
         <v>26.86</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="43">
         <v>3.11</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="13">
         <v>26.91</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="13">
         <v>3.09</v>
       </c>
-      <c r="X8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="18">
+      <c r="X8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="15">
         <f>G5</f>
         <v>58.8</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="Z8" s="15">
         <f>H5</f>
         <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B9" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="60"/>
       <c r="E9" s="64"/>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>1.2</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="13">
         <v>4.84</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="13">
         <v>0.87</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="39">
         <v>4.6900000000000004</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="39">
         <v>0.75</v>
       </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="44">
+      <c r="M9" s="38"/>
+      <c r="N9" s="39">
         <v>4.6900000000000004</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="43">
         <v>0.75</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="13">
         <v>4.6900000000000004</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="13">
         <v>0.75</v>
       </c>
-      <c r="X9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y9" s="18">
+      <c r="X9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="15">
         <f>I5</f>
         <v>54.59</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="Z9" s="15">
         <f>J5</f>
         <v>2.23</v>
       </c>
     </row>
     <row r="10" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B10" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="B10" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
         <v>28.9</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>26.82</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="13">
         <v>4.12</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="39">
         <v>26.6</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="39">
         <v>3.13</v>
       </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="44">
+      <c r="M10" s="38"/>
+      <c r="N10" s="39">
         <v>26.6</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="43">
         <v>3.13</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="13">
         <v>26.16</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="13">
         <v>2.84</v>
       </c>
       <c r="X10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y10" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="15">
         <f>K5</f>
         <v>52.83</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z10" s="15">
         <f>L5</f>
         <v>1.53</v>
       </c>
     </row>
     <row r="11" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B11" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="B11" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
         <v>28.8</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>5</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="13">
         <v>26.7</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="13">
         <v>3.83</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="39">
         <v>26.51</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="39">
         <v>1.71</v>
       </c>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44">
+      <c r="M11" s="38"/>
+      <c r="N11" s="39">
         <v>26.51</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="43">
         <v>1.71</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="13">
         <v>26.27</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="13">
         <v>2.73</v>
       </c>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B12" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="B12" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7">
         <v>22.3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>11.3</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>22.8</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>5.87</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="39">
         <v>22.9</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="39">
         <v>4.91</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44">
+      <c r="M12" s="38"/>
+      <c r="N12" s="39">
         <v>22.9</v>
       </c>
-      <c r="O12" s="48">
+      <c r="O12" s="43">
         <v>4.91</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="13">
         <v>23.16</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="13">
         <v>5.33</v>
       </c>
       <c r="W12" t="str">
@@ -7203,185 +7240,185 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B13" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7">
+        <v>96</v>
+      </c>
+      <c r="H13" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="I13" s="13">
+        <v>87.97</v>
+      </c>
+      <c r="J13" s="13">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="K13" s="39">
+        <v>87.22</v>
+      </c>
+      <c r="L13" s="39">
+        <v>14.62</v>
+      </c>
+      <c r="M13" s="38"/>
+      <c r="N13" s="39">
+        <v>87.22</v>
+      </c>
+      <c r="O13" s="43">
+        <v>14.62</v>
+      </c>
+      <c r="P13" s="13">
+        <v>84.43</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>13.85</v>
+      </c>
+      <c r="X13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="9">
-        <v>96</v>
-      </c>
-      <c r="H13" s="9">
-        <v>24.4</v>
-      </c>
-      <c r="I13" s="16">
-        <v>87.97</v>
-      </c>
-      <c r="J13" s="16">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="K13" s="44">
-        <v>87.22</v>
-      </c>
-      <c r="L13" s="44">
-        <v>14.62</v>
-      </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44">
-        <v>87.22</v>
-      </c>
-      <c r="O13" s="48">
-        <v>14.62</v>
-      </c>
-      <c r="P13" s="16">
-        <v>84.43</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>13.85</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y13" s="18">
+      <c r="Y13" s="15">
         <f>G6</f>
         <v>73.599999999999994</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="Z13" s="15">
         <f>H6</f>
         <v>9.1</v>
       </c>
     </row>
     <row r="14" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="B14" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="7">
         <v>38.299999999999997</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>8</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="13">
         <v>37.130000000000003</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>10.7</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="39">
         <v>35.6</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="40">
         <v>5.72</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="44">
+      <c r="M14" s="45"/>
+      <c r="N14" s="39">
         <v>35.6</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="44">
         <v>5.72</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="13">
         <v>34.630000000000003</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="9">
         <v>5.32</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="X14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y14" s="18">
+      <c r="R14" s="8"/>
+      <c r="X14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y14" s="15">
         <f>I6</f>
         <v>67.66</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="15">
         <f>J6</f>
         <v>7.45</v>
       </c>
     </row>
     <row r="15" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B15" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="B15" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7">
         <v>50.9</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>10.8</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="13">
         <v>48.86</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="13">
         <v>4.79</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="39">
         <v>49.06</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="39">
         <v>5.19</v>
       </c>
-      <c r="M15" s="43"/>
-      <c r="N15" s="44">
+      <c r="M15" s="38"/>
+      <c r="N15" s="39">
         <v>49.06</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="43">
         <v>5.19</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="13">
         <v>49.79</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="13">
         <v>5.38</v>
       </c>
       <c r="X15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y15" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y15" s="15">
         <f>K6</f>
         <v>67.069999999999993</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="Z15" s="15">
         <f>L6</f>
         <v>3.14</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="2:26" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="26"/>
+      <c r="B17" s="23"/>
       <c r="W17" t="str">
         <f>C7&amp;D7</f>
         <v>#4
@@ -7389,51 +7426,51 @@
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="X18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="18">
+      <c r="X18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y18" s="15">
         <f>G7</f>
         <v>181.4</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="Z18" s="15">
         <f>H7</f>
         <v>26.6</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="X19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" s="18">
+      <c r="X19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y19" s="15">
         <f>I7</f>
         <v>170.31</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="Z19" s="15">
         <f>J7</f>
         <v>20.92</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B20" s="25"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="10"/>
       <c r="X20" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y20" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="15">
         <f>K7</f>
         <v>170.67</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20" s="15">
         <f>L7</f>
         <v>17.190000000000001</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W22" t="str">
@@ -7443,49 +7480,49 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="X23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y23" s="18">
+      <c r="X23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23" s="15">
         <f>G8</f>
         <v>29</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="Z23" s="15">
         <f>H8</f>
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="X24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y24" s="18">
+      <c r="X24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y24" s="15">
         <f>I8</f>
         <v>27.07</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="Z24" s="15">
         <f>J8</f>
         <v>3.89</v>
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X25" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y25" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="15">
         <f>K8</f>
         <v>26.86</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="Z25" s="15">
         <f>L8</f>
         <v>3.11</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W27" t="str">
@@ -7495,49 +7532,49 @@
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="X28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y28" s="18">
+      <c r="X28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y28" s="15">
         <f>G9</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z28" s="18">
+      <c r="Z28" s="15">
         <f>H9</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="X29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y29" s="18">
+      <c r="X29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y29" s="15">
         <f>I9</f>
         <v>4.84</v>
       </c>
-      <c r="Z29" s="18">
+      <c r="Z29" s="15">
         <f>J9</f>
         <v>0.87</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X30" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y30" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y30" s="15">
         <f>K9</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="Z30" s="18">
+      <c r="Z30" s="15">
         <f>L9</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W32" t="str">
@@ -7547,49 +7584,49 @@
       </c>
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="X33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y33" s="18">
+      <c r="X33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y33" s="15">
         <f>G10</f>
         <v>28.9</v>
       </c>
-      <c r="Z33" s="18">
+      <c r="Z33" s="15">
         <f>H10</f>
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="X34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y34" s="18">
+      <c r="X34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y34" s="15">
         <f>I10</f>
         <v>26.82</v>
       </c>
-      <c r="Z34" s="18">
+      <c r="Z34" s="15">
         <f>J10</f>
         <v>4.12</v>
       </c>
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X35" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y35" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y35" s="15">
         <f>K10</f>
         <v>26.6</v>
       </c>
-      <c r="Z35" s="18">
+      <c r="Z35" s="15">
         <f>L10</f>
         <v>3.13</v>
       </c>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.4">
       <c r="W37" t="str">
@@ -7600,51 +7637,51 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.4">
       <c r="F38" t="s">
-        <v>65</v>
-      </c>
-      <c r="X38" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y38" s="18">
+        <v>55</v>
+      </c>
+      <c r="X38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y38" s="15">
         <f>G11</f>
         <v>28.8</v>
       </c>
-      <c r="Z38" s="18">
+      <c r="Z38" s="15">
         <f>H11</f>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="X39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y39" s="18">
+      <c r="X39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y39" s="15">
         <f>I11</f>
         <v>26.7</v>
       </c>
-      <c r="Z39" s="18">
+      <c r="Z39" s="15">
         <f>J11</f>
         <v>3.83</v>
       </c>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X40" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y40" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y40" s="15">
         <f>K11</f>
         <v>26.51</v>
       </c>
-      <c r="Z40" s="18">
+      <c r="Z40" s="15">
         <f>L11</f>
         <v>1.71</v>
       </c>
     </row>
     <row r="41" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
     </row>
     <row r="42" spans="3:26" x14ac:dyDescent="0.4">
       <c r="W42" t="str">
@@ -7654,201 +7691,201 @@
       </c>
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="X43" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y43" s="18">
+      <c r="X43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y43" s="15">
         <f>G12</f>
         <v>22.3</v>
       </c>
-      <c r="Z43" s="18">
+      <c r="Z43" s="15">
         <f>H12</f>
         <v>11.3</v>
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C44" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="19" t="s">
+      <c r="C44" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="O44" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="M44" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N44" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="O44" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="X44" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y44" s="18">
+      <c r="X44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y44" s="15">
         <f>I12</f>
         <v>22.8</v>
       </c>
-      <c r="Z44" s="18">
+      <c r="Z44" s="15">
         <f>J12</f>
         <v>5.87</v>
       </c>
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C45" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="53" t="s">
+      <c r="C45" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="N45" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="H45" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="K45" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>52</v>
+      <c r="O45" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="X45" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y45" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y45" s="15">
         <f>K12</f>
         <v>22.9</v>
       </c>
-      <c r="Z45" s="18">
+      <c r="Z45" s="15">
         <f>L12</f>
         <v>4.91</v>
       </c>
     </row>
     <row r="46" spans="3:26" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D46" s="56" t="str">
+      <c r="D46" s="51" t="str">
         <f>D44&amp;CHAR(10)&amp;D45</f>
         <v>#1
 cube</v>
       </c>
-      <c r="E46" s="56" t="str">
+      <c r="E46" s="51" t="str">
         <f t="shared" ref="E46:O46" si="0">E44&amp;CHAR(10)&amp;E45</f>
         <v>#2
 sphere</v>
       </c>
-      <c r="F46" s="56" t="str">
+      <c r="F46" s="51" t="str">
         <f t="shared" si="0"/>
         <v>#3
 cone</v>
       </c>
-      <c r="G46" s="56" t="str">
+      <c r="G46" s="51" t="str">
         <f t="shared" si="0"/>
         <v>#4
 Bx2</v>
       </c>
-      <c r="H46" s="56" t="str">
+      <c r="H46" s="51" t="str">
         <f t="shared" si="0"/>
         <v>#5
 B</v>
       </c>
-      <c r="I46" s="56" t="str">
+      <c r="I46" s="51" t="str">
         <f t="shared" si="0"/>
         <v>#6
 Bx0.5</v>
       </c>
-      <c r="J46" s="56" t="str">
+      <c r="J46" s="51" t="str">
         <f t="shared" si="0"/>
         <v>#7
 B/5k</v>
       </c>
-      <c r="K46" s="56" t="str">
+      <c r="K46" s="51" t="str">
         <f t="shared" si="0"/>
         <v>#8
 B/1k</v>
       </c>
-      <c r="L46" s="56" t="str">
+      <c r="L46" s="51" t="str">
         <f t="shared" si="0"/>
         <v>#9
 mnk</v>
       </c>
-      <c r="M46" s="56" t="str">
+      <c r="M46" s="51" t="str">
         <f t="shared" si="0"/>
         <v>#10
 drg</v>
       </c>
-      <c r="N46" s="56" t="str">
+      <c r="N46" s="51" t="str">
         <f t="shared" si="0"/>
         <v>#11
 Buda</v>
       </c>
-      <c r="O46" s="56" t="str">
+      <c r="O46" s="51" t="str">
         <f t="shared" si="0"/>
         <v>#12
 Lucy</v>
       </c>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
     </row>
     <row r="47" spans="3:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
       <c r="W47" t="str">
         <f>C13&amp;D13</f>
         <v>#10
@@ -7856,49 +7893,49 @@
       </c>
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="X48" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y48" s="18">
+      <c r="X48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y48" s="15">
         <f>G13</f>
         <v>96</v>
       </c>
-      <c r="Z48" s="18">
+      <c r="Z48" s="15">
         <f>H13</f>
         <v>24.4</v>
       </c>
     </row>
     <row r="49" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="X49" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y49" s="18">
+      <c r="X49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y49" s="15">
         <f>I13</f>
         <v>87.97</v>
       </c>
-      <c r="Z49" s="18">
+      <c r="Z49" s="15">
         <f>J13</f>
         <v>17.940000000000001</v>
       </c>
     </row>
     <row r="50" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X50" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y50" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y50" s="15">
         <f>K13</f>
         <v>87.22</v>
       </c>
-      <c r="Z50" s="18">
+      <c r="Z50" s="15">
         <f>L13</f>
         <v>14.62</v>
       </c>
     </row>
     <row r="51" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
     </row>
     <row r="52" spans="23:26" x14ac:dyDescent="0.4">
       <c r="W52" t="str">
@@ -7908,49 +7945,49 @@
       </c>
     </row>
     <row r="53" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="X53" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y53" s="18">
+      <c r="X53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y53" s="15">
         <f>G14</f>
         <v>38.299999999999997</v>
       </c>
-      <c r="Z53" s="18">
+      <c r="Z53" s="15">
         <f>H14</f>
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="X54" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y54" s="18">
+      <c r="X54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y54" s="15">
         <f>I14</f>
         <v>37.130000000000003</v>
       </c>
-      <c r="Z54" s="18">
+      <c r="Z54" s="15">
         <f>J14</f>
         <v>10.7</v>
       </c>
     </row>
     <row r="55" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X55" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y55" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y55" s="15">
         <f>K14</f>
         <v>35.6</v>
       </c>
-      <c r="Z55" s="18">
+      <c r="Z55" s="15">
         <f>L14</f>
         <v>5.72</v>
       </c>
     </row>
     <row r="56" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
     </row>
     <row r="57" spans="23:26" x14ac:dyDescent="0.4">
       <c r="W57" t="str">
@@ -7960,49 +7997,49 @@
       </c>
     </row>
     <row r="58" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="X58" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y58" s="18">
+      <c r="X58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y58" s="15">
         <f>G15</f>
         <v>50.9</v>
       </c>
-      <c r="Z58" s="18">
+      <c r="Z58" s="15">
         <f>H15</f>
         <v>10.8</v>
       </c>
     </row>
     <row r="59" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="X59" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y59" s="18">
+      <c r="X59" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y59" s="15">
         <f>I15</f>
         <v>48.86</v>
       </c>
-      <c r="Z59" s="18">
+      <c r="Z59" s="15">
         <f>J15</f>
         <v>4.79</v>
       </c>
     </row>
     <row r="60" spans="23:26" x14ac:dyDescent="0.4">
       <c r="X60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y60" s="18">
+        <v>36</v>
+      </c>
+      <c r="Y60" s="15">
         <f>K15</f>
         <v>49.06</v>
       </c>
-      <c r="Z60" s="18">
+      <c r="Z60" s="15">
         <f>L15</f>
         <v>5.19</v>
       </c>
     </row>
     <row r="61" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="20"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8039,461 +8076,461 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9" style="29"/>
-    <col min="3" max="3" width="12.8984375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="18.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9" style="25"/>
+    <col min="3" max="3" width="12.8984375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="28"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="66" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="66" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F2" s="66"/>
       <c r="G2" s="66" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H2" s="66"/>
       <c r="J2" s="66" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K2" s="66"/>
       <c r="L2" s="66" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="39" t="s">
+      <c r="A3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="D4" s="32">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E4" s="25">
+        <v>54.59</v>
+      </c>
+      <c r="F4" s="25">
+        <v>20.37</v>
+      </c>
+      <c r="G4" s="25">
+        <v>52.31</v>
+      </c>
+      <c r="H4" s="27">
+        <v>13.94</v>
+      </c>
+      <c r="J4" s="25">
+        <v>52.31</v>
+      </c>
+      <c r="K4" s="27">
+        <v>13.94</v>
+      </c>
+      <c r="L4" s="25">
+        <v>51.03</v>
+      </c>
+      <c r="M4" s="27">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="29">
+        <v>10</v>
+      </c>
+      <c r="C5" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="D5" s="32">
+        <v>18.3</v>
+      </c>
+      <c r="E5" s="25">
+        <v>54.59</v>
+      </c>
+      <c r="F5" s="25">
+        <v>18.55</v>
+      </c>
+      <c r="G5" s="25">
+        <v>52.26</v>
+      </c>
+      <c r="H5" s="27">
+        <v>13.22</v>
+      </c>
+      <c r="J5" s="25">
+        <v>52.26</v>
+      </c>
+      <c r="K5" s="27">
+        <v>13.22</v>
+      </c>
+      <c r="L5" s="25">
+        <v>50.87</v>
+      </c>
+      <c r="M5" s="27">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="29">
+        <v>20</v>
+      </c>
+      <c r="C6" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="D6" s="32">
+        <v>15.2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>54.59</v>
+      </c>
+      <c r="F6" s="25">
+        <v>15.64</v>
+      </c>
+      <c r="G6" s="25">
+        <v>52.49</v>
+      </c>
+      <c r="H6" s="27">
+        <v>10.92</v>
+      </c>
+      <c r="J6" s="25">
+        <v>52.49</v>
+      </c>
+      <c r="K6" s="27">
+        <v>10.92</v>
+      </c>
+      <c r="L6" s="25">
+        <v>50.65</v>
+      </c>
+      <c r="M6" s="27">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="29">
+        <v>30</v>
+      </c>
+      <c r="C7" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="D7" s="32">
+        <v>11.6</v>
+      </c>
+      <c r="E7" s="25">
+        <v>54.59</v>
+      </c>
+      <c r="F7" s="27">
+        <v>11.84</v>
+      </c>
+      <c r="G7" s="25">
+        <v>52.23</v>
+      </c>
+      <c r="H7" s="25">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="J7" s="25">
+        <v>52.23</v>
+      </c>
+      <c r="K7" s="25">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="L7" s="25">
+        <v>50.74</v>
+      </c>
+      <c r="M7" s="25">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="29">
+        <v>40</v>
+      </c>
+      <c r="C8" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="D8" s="32">
+        <v>7.8</v>
+      </c>
+      <c r="E8" s="25">
+        <v>54.59</v>
+      </c>
+      <c r="F8" s="27">
+        <v>7.91</v>
+      </c>
+      <c r="G8" s="27">
+        <v>52.41</v>
+      </c>
+      <c r="H8" s="27">
+        <v>5.39</v>
+      </c>
+      <c r="J8" s="27">
+        <v>52.41</v>
+      </c>
+      <c r="K8" s="27">
+        <v>5.39</v>
+      </c>
+      <c r="L8" s="27">
+        <v>51.02</v>
+      </c>
+      <c r="M8" s="27">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="29">
+        <v>50</v>
+      </c>
+      <c r="C9" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="D9" s="32">
+        <v>4.7</v>
+      </c>
+      <c r="E9" s="25">
+        <v>54.59</v>
+      </c>
+      <c r="F9" s="27">
+        <v>4.62</v>
+      </c>
+      <c r="G9" s="27">
+        <v>52.38</v>
+      </c>
+      <c r="H9" s="27">
+        <v>3.15</v>
+      </c>
+      <c r="J9" s="27">
+        <v>52.38</v>
+      </c>
+      <c r="K9" s="27">
+        <v>3.15</v>
+      </c>
+      <c r="L9" s="27">
+        <v>50.92</v>
+      </c>
+      <c r="M9" s="27">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="29">
+        <v>60</v>
+      </c>
+      <c r="C10" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="D10" s="32">
+        <v>2.4</v>
+      </c>
+      <c r="E10" s="25">
+        <v>54.59</v>
+      </c>
+      <c r="F10" s="27">
+        <v>2.23</v>
+      </c>
+      <c r="G10" s="27">
+        <v>52.22</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1.51</v>
+      </c>
+      <c r="J10" s="27">
+        <v>52.22</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1.51</v>
+      </c>
+      <c r="L10" s="27">
+        <v>50.99</v>
+      </c>
+      <c r="M10" s="27">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="29">
         <v>70</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="33">
+      <c r="C11" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="E11" s="25">
+        <v>54.59</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.92</v>
+      </c>
+      <c r="G11" s="27">
+        <v>52.49</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="27">
+        <v>52.49</v>
+      </c>
+      <c r="K11" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="27">
+        <v>50.87</v>
+      </c>
+      <c r="M11" s="27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="29">
+        <v>80</v>
+      </c>
+      <c r="C12" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="25">
+        <v>54.59</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="G12" s="27">
+        <v>52.19</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="27">
+        <v>52.19</v>
+      </c>
+      <c r="K12" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="L12" s="27">
+        <v>50.69</v>
+      </c>
+      <c r="M12" s="27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="29">
+        <v>90</v>
+      </c>
+      <c r="C13" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="25">
+        <v>54.59</v>
+      </c>
+      <c r="F13" s="27">
         <v>0</v>
       </c>
-      <c r="C4" s="37">
-        <v>58.8</v>
-      </c>
-      <c r="D4" s="36">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E4" s="29">
-        <v>54.59</v>
-      </c>
-      <c r="F4" s="29">
-        <v>20.37</v>
-      </c>
-      <c r="G4" s="29">
-        <v>52.31</v>
-      </c>
-      <c r="H4" s="31">
-        <v>13.94</v>
-      </c>
-      <c r="J4" s="29">
-        <v>52.31</v>
-      </c>
-      <c r="K4" s="31">
-        <v>13.94</v>
-      </c>
-      <c r="L4" s="29">
-        <v>51.03</v>
-      </c>
-      <c r="M4" s="31">
-        <v>13.56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="33">
-        <v>10</v>
-      </c>
-      <c r="C5" s="37">
-        <v>58.8</v>
-      </c>
-      <c r="D5" s="36">
-        <v>18.3</v>
-      </c>
-      <c r="E5" s="29">
-        <v>54.59</v>
-      </c>
-      <c r="F5" s="29">
-        <v>18.55</v>
-      </c>
-      <c r="G5" s="29">
-        <v>52.26</v>
-      </c>
-      <c r="H5" s="31">
-        <v>13.22</v>
-      </c>
-      <c r="J5" s="29">
-        <v>52.26</v>
-      </c>
-      <c r="K5" s="31">
-        <v>13.22</v>
-      </c>
-      <c r="L5" s="29">
-        <v>50.87</v>
-      </c>
-      <c r="M5" s="31">
-        <v>12.44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="33">
-        <v>20</v>
-      </c>
-      <c r="C6" s="37">
-        <v>58.8</v>
-      </c>
-      <c r="D6" s="36">
-        <v>15.2</v>
-      </c>
-      <c r="E6" s="29">
-        <v>54.59</v>
-      </c>
-      <c r="F6" s="29">
-        <v>15.64</v>
-      </c>
-      <c r="G6" s="29">
-        <v>52.49</v>
-      </c>
-      <c r="H6" s="31">
-        <v>10.92</v>
-      </c>
-      <c r="J6" s="29">
-        <v>52.49</v>
-      </c>
-      <c r="K6" s="31">
-        <v>10.92</v>
-      </c>
-      <c r="L6" s="29">
-        <v>50.65</v>
-      </c>
-      <c r="M6" s="31">
-        <v>10.58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="33">
-        <v>30</v>
-      </c>
-      <c r="C7" s="37">
-        <v>58.8</v>
-      </c>
-      <c r="D7" s="36">
-        <v>11.6</v>
-      </c>
-      <c r="E7" s="29">
-        <v>54.59</v>
-      </c>
-      <c r="F7" s="31">
-        <v>11.84</v>
-      </c>
-      <c r="G7" s="29">
-        <v>52.23</v>
-      </c>
-      <c r="H7" s="29">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="J7" s="29">
-        <v>52.23</v>
-      </c>
-      <c r="K7" s="29">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="L7" s="29">
-        <v>50.74</v>
-      </c>
-      <c r="M7" s="29">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="33">
-        <v>40</v>
-      </c>
-      <c r="C8" s="37">
-        <v>58.8</v>
-      </c>
-      <c r="D8" s="36">
-        <v>7.8</v>
-      </c>
-      <c r="E8" s="29">
-        <v>54.59</v>
-      </c>
-      <c r="F8" s="31">
-        <v>7.91</v>
-      </c>
-      <c r="G8" s="31">
-        <v>52.41</v>
-      </c>
-      <c r="H8" s="31">
-        <v>5.39</v>
-      </c>
-      <c r="J8" s="31">
-        <v>52.41</v>
-      </c>
-      <c r="K8" s="31">
-        <v>5.39</v>
-      </c>
-      <c r="L8" s="31">
-        <v>51.02</v>
-      </c>
-      <c r="M8" s="31">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="33">
-        <v>50</v>
-      </c>
-      <c r="C9" s="37">
-        <v>58.8</v>
-      </c>
-      <c r="D9" s="36">
-        <v>4.7</v>
-      </c>
-      <c r="E9" s="29">
-        <v>54.59</v>
-      </c>
-      <c r="F9" s="31">
-        <v>4.62</v>
-      </c>
-      <c r="G9" s="31">
-        <v>52.38</v>
-      </c>
-      <c r="H9" s="31">
-        <v>3.15</v>
-      </c>
-      <c r="J9" s="31">
-        <v>52.38</v>
-      </c>
-      <c r="K9" s="31">
-        <v>3.15</v>
-      </c>
-      <c r="L9" s="31">
-        <v>50.92</v>
-      </c>
-      <c r="M9" s="31">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="33">
-        <v>60</v>
-      </c>
-      <c r="C10" s="37">
-        <v>58.8</v>
-      </c>
-      <c r="D10" s="36">
-        <v>2.4</v>
-      </c>
-      <c r="E10" s="29">
-        <v>54.59</v>
-      </c>
-      <c r="F10" s="31">
-        <v>2.23</v>
-      </c>
-      <c r="G10" s="31">
-        <v>52.22</v>
-      </c>
-      <c r="H10" s="31">
-        <v>1.51</v>
-      </c>
-      <c r="J10" s="31">
-        <v>52.22</v>
-      </c>
-      <c r="K10" s="31">
-        <v>1.51</v>
-      </c>
-      <c r="L10" s="31">
-        <v>50.99</v>
-      </c>
-      <c r="M10" s="31">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="33">
-        <v>70</v>
-      </c>
-      <c r="C11" s="37">
-        <v>58.8</v>
-      </c>
-      <c r="D11" s="36">
-        <v>1.2</v>
-      </c>
-      <c r="E11" s="29">
-        <v>54.59</v>
-      </c>
-      <c r="F11" s="31">
-        <v>0.92</v>
-      </c>
-      <c r="G11" s="31">
-        <v>52.49</v>
-      </c>
-      <c r="H11" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="J11" s="31">
-        <v>52.49</v>
-      </c>
-      <c r="K11" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="L11" s="31">
-        <v>50.87</v>
-      </c>
-      <c r="M11" s="31">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="33">
-        <v>80</v>
-      </c>
-      <c r="C12" s="37">
-        <v>58.8</v>
-      </c>
-      <c r="D12" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="29">
-        <v>54.59</v>
-      </c>
-      <c r="F12" s="31">
-        <v>0.17</v>
-      </c>
-      <c r="G12" s="31">
-        <v>52.19</v>
-      </c>
-      <c r="H12" s="31">
+      <c r="G13" s="27">
+        <v>52.39</v>
+      </c>
+      <c r="H13" s="27">
         <v>0.25</v>
       </c>
-      <c r="J12" s="31">
-        <v>52.19</v>
-      </c>
-      <c r="K12" s="31">
+      <c r="J13" s="27">
+        <v>52.39</v>
+      </c>
+      <c r="K13" s="27">
         <v>0.25</v>
       </c>
-      <c r="L12" s="31">
-        <v>50.69</v>
-      </c>
-      <c r="M12" s="31">
+      <c r="L13" s="27">
+        <v>50.47</v>
+      </c>
+      <c r="M13" s="27">
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="33">
-        <v>90</v>
-      </c>
-      <c r="C13" s="37">
-        <v>58.8</v>
-      </c>
-      <c r="D13" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="29">
-        <v>54.59</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31">
-        <v>52.39</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="J13" s="31">
-        <v>52.39</v>
-      </c>
-      <c r="K13" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="L13" s="31">
-        <v>50.47</v>
-      </c>
-      <c r="M13" s="31">
-        <v>0.25</v>
-      </c>
-    </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C14" s="34"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E17" s="29" t="s">
-        <v>75</v>
+      <c r="E17" s="25" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -8516,7 +8553,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8527,46 +8564,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="M1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="54" t="s">
-        <v>18</v>
+      <c r="A2" s="49" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <v>397.47483599999998</v>
@@ -8607,7 +8644,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>78.462999999999994</v>
@@ -8648,7 +8685,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>235.02652699999999</v>
@@ -8689,7 +8726,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>47.207138</v>
@@ -8730,7 +8767,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>19.735993000000001</v>
@@ -8812,167 +8849,167 @@
     </row>
     <row r="10" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A11" s="67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="68"/>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="41" t="s">
-        <v>91</v>
+      <c r="A13" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>79</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>82</v>
+      <c r="A14" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="41" t="s">
-        <v>83</v>
+      <c r="A15" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="68"/>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C19" s="68"/>
     </row>
     <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2">
         <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="41" t="s">
-        <v>23</v>
+      <c r="A21" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4">
         <v>1920</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="41" t="s">
-        <v>89</v>
+      <c r="A22" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4">
         <v>8704</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="41" t="s">
-        <v>24</v>
+      <c r="A23" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4">
         <v>16384</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="58">
+      <c r="A26" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="53">
         <v>87.884372999999997</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="53">
         <v>91.324453000000005</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="53">
         <v>96.746105999999997</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="53">
         <v>185.39295899999999</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="53">
         <v>185.65374499999999</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="53">
         <v>172.71875600000001</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="53">
         <v>93.143704999999997</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="53">
         <v>88.837778999999998</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="53">
         <v>95.034284</v>
       </c>
-      <c r="K26" s="58">
+      <c r="K26" s="53">
         <v>182.50201799999999</v>
       </c>
-      <c r="L26" s="58">
+      <c r="L26" s="53">
         <v>126.26885900000001</v>
       </c>
-      <c r="M26" s="58">
+      <c r="M26" s="53">
         <v>135.31586100000001</v>
       </c>
     </row>

--- a/_draft0/tomoGPU.xlsx
+++ b/_draft0/tomoGPU.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__TomoNV_Projects\Tomo_GPU2024\_draft0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4540A3F1-AF91-408C-A372-6D167910B3FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61639147-E767-48C5-AA16-8ECDE5FC25CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="형상별Mtotal" sheetId="2" r:id="rId1"/>
+    <sheet name="형상별Mtotal" sheetId="5" r:id="rId1"/>
     <sheet name="임계각별Mtotal" sheetId="3" r:id="rId2"/>
     <sheet name="HW별속도" sheetId="4" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{75D81707-3E3C-4B3F-8364-7BC607069CC0}">
       <text>
         <r>
           <rPr>
@@ -46,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{C3838AE9-EA39-48B4-8BD8-DC781F008E29}">
       <text>
         <r>
           <rPr>
@@ -61,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{CA1E8880-2F4F-4C79-B133-D45B43246BC7}">
       <text>
         <r>
           <rPr>
@@ -76,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{0900D0DD-6C18-4CB3-B655-4305715128C6}">
       <text>
         <r>
           <rPr>
@@ -91,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{C1933F62-3B02-4459-B0A1-E39D86E25CC6}">
       <text>
         <r>
           <rPr>
@@ -106,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{63A2897E-6A97-402D-A38D-87589C6A5E08}">
+    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{22A4EE24-14C0-49B2-B36F-0A9D03D5B70B}">
       <text>
         <r>
           <rPr>
@@ -120,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L45" authorId="0" shapeId="0" xr:uid="{81F08735-BA5D-4AD0-AFA1-E473B1B669DF}">
+    <comment ref="L45" authorId="0" shapeId="0" xr:uid="{D07BF9F1-7C3F-4DCB-B5CE-229B5BF878E9}">
       <text>
         <r>
           <rPr>
@@ -135,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M45" authorId="0" shapeId="0" xr:uid="{B7D82E3D-3D8E-4B1D-BE4E-C1DE7BAF7A4A}">
+    <comment ref="M45" authorId="0" shapeId="0" xr:uid="{D14A1D88-35B6-4E8D-BC2C-509EEF908ABF}">
       <text>
         <r>
           <rPr>
@@ -150,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N45" authorId="0" shapeId="0" xr:uid="{B16AD0FD-29EA-4289-8BF1-0F2EBF0213BE}">
+    <comment ref="N45" authorId="0" shapeId="0" xr:uid="{217C98D5-2B96-4BA4-8F34-74D96F2AF2C2}">
       <text>
         <r>
           <rPr>
@@ -165,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{016A2E68-B3C1-453D-A665-296AE5C3D18E}">
+    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{84A9266C-E877-4E2E-B7B1-289C0B10F428}">
       <text>
         <r>
           <rPr>
@@ -197,11 +200,22 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Intel i7</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>일단</t>
+          <t xml:space="preserve">
+일단</t>
         </r>
         <r>
           <rPr>
@@ -257,16 +271,82 @@
         </r>
       </text>
     </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C73A9279-031F-4333-9987-92C1E54C294A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AMD 7950X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{FAD17CB8-2A2C-4B1D-9638-3FDAC7E5B48A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GTX 1050</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{BF13DE8A-C82B-4677-8227-615F00D33E21}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RTX 2060</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{85BAD223-FF60-4D00-BD99-9BD4E1B84636}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RTX 3080</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{955734C3-BDA1-4018-9AF0-57DBDCDA305D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RTX 4090</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
-  <si>
-    <t>RTX 4090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="158">
   <si>
     <t>50x50x50</t>
   </si>
@@ -302,9 +382,6 @@
   </si>
   <si>
     <t>thread</t>
-  </si>
-  <si>
-    <t>Intel i7-8700</t>
   </si>
   <si>
     <t>3.2/4.6</t>
@@ -417,18 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,60 +579,6 @@
   </si>
   <si>
     <t>임계각(°)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woxMo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woxMss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>cpu</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mo</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cpu</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mss</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -689,31 +700,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AMD 7950X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AMD 5900X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RTX 2060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTX 3080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;CPU spec.&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;GPU spec.&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTX 1050</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -924,6 +919,192 @@
     <t>25,006/
 49,999</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://colorbada.com/colorbada/6112/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bossanova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gable Green
+rgb(21, 60, 57)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steel Blue
+rgb(88, 135, 186)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spindle
+rgb(194, 214, 242)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30°</t>
+  </si>
+  <si>
+    <t>40°</t>
+  </si>
+  <si>
+    <t>50°</t>
+  </si>
+  <si>
+    <t>60°</t>
+  </si>
+  <si>
+    <t>70°</t>
+  </si>
+  <si>
+    <t>80°</t>
+  </si>
+  <si>
+    <t>90°</t>
+  </si>
+  <si>
+    <t>CPU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slicer Mss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slicer Mo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GPU1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU1 Mss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CPU1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CPU1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mss</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mss</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Slicer</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>GPU</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1279,6 +1460,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1319,9 +1509,6 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1330,9 +1517,6 @@
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1351,9 +1535,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1430,9 +1611,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1460,19 +1638,31 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1496,8 +1686,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1506,6 +1696,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC2D6F2"/>
+      <color rgb="FF0303FF"/>
+      <color rgb="FF153C39"/>
+      <color rgb="FF5887BA"/>
+      <color rgb="FF00009B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1667,7 +1866,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="5887BA"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1963,7 +2162,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-03C9-4117-926A-93CCBD5F4D5C}"/>
+              <c16:uniqueId val="{00000000-F7D6-48AC-BC02-E8C19E336324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1982,9 +2181,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2279,7 +2485,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-03C9-4117-926A-93CCBD5F4D5C}"/>
+              <c16:uniqueId val="{00000001-F7D6-48AC-BC02-E8C19E336324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2477,7 +2683,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2496,7 +2702,1215 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0530267225477329E-2"/>
+          <c:y val="5.0028797952145647E-2"/>
+          <c:w val="0.86101488096871193"/>
+          <c:h val="0.81705391814112971"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>형상별Mtotal!$K$49:$K$50</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Mss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Slicer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>형상별Mtotal!$J$51:$J$62</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+sphere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+Bx2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+Bx0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>형상별Mtotal!$K$51:$K$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>38.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-951B-49A2-8351-48F38B8C0B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>형상별Mtotal!$L$49:$L$50</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Mss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>형상별Mtotal!$J$51:$J$62</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+sphere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+Bx2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+Bx0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>형상별Mtotal!$L$51:$L$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>37.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.23000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-951B-49A2-8351-48F38B8C0B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>형상별Mtotal!$M$49:$M$50</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Mss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="C2D6F2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>형상별Mtotal!$J$51:$J$62</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+sphere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+Bx2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+Bx0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>형상별Mtotal!$M$51:$M$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187.85999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-951B-49A2-8351-48F38B8C0B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2049861679"/>
+        <c:axId val="2106607503"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>형상별Mtotal!$N$49:$N$50</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Mo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Slicer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>형상별Mtotal!$J$51:$J$62</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+sphere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+Bx2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+Bx0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>형상별Mtotal!$N$51:$N$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-951B-49A2-8351-48F38B8C0B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>형상별Mtotal!$O$49:$O$50</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Mo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>형상별Mtotal!$J$51:$J$62</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+sphere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+Bx2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+Bx0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>형상별Mtotal!$O$51:$O$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>35.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-951B-49A2-8351-48F38B8C0B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>형상별Mtotal!$P$49:$P$50</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Mo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C2D6F2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>형상별Mtotal!$J$51:$J$62</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+sphere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+Bx2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+Bx0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>형상별Mtotal!$P$51:$P$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>35.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-951B-49A2-8351-48F38B8C0B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2068201103"/>
+        <c:axId val="2058554159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2049861679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>→ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Mesh ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.87569540389286205"/>
+              <c:y val="0.95191392693211929"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106607503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2106607503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="220"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Total filament mass (M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>) predicted [g] </a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049861679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2058554159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="220"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2068201103"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2068201103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2058554159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20778680224027116"/>
+          <c:y val="0.94972970264158507"/>
+          <c:w val="0.58442639551945774"/>
+          <c:h val="5.0270297358414921E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2510,16 +3924,132 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ko-KR"/>
@@ -2528,7 +4058,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0556003593318142E-2"/>
+          <c:y val="3.704792895367226E-2"/>
+          <c:w val="0.92607622519402888"/>
+          <c:h val="0.84672367644795443"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2542,59 +4082,104 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>woxMo</c:v>
+                  <c:v>slicer Mo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>임계각별Mtotal!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0°</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10°</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20°</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30°</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40°</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50°</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60°</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70°</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80°</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>90°</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2650,59 +4235,109 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>woxMss</c:v>
+                  <c:v>slicer Mss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>임계각별Mtotal!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0°</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10°</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20°</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30°</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40°</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50°</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60°</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70°</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80°</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>90°</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2758,14 +4393,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cpuMo</c:v>
+                  <c:v>CPU1 Mo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2773,44 +4408,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>임계각별Mtotal!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0°</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10°</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20°</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30°</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40°</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50°</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60°</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70°</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80°</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>90°</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2866,59 +4541,109 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cpuMss</c:v>
+                  <c:v>CPU1 Mss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>임계각별Mtotal!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0°</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10°</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20°</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30°</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40°</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50°</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60°</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70°</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80°</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>90°</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2974,59 +4699,104 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gpuMo</c:v>
+                  <c:v>GPU1 Mo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="C2D6F2"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>임계각별Mtotal!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0°</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10°</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20°</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30°</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40°</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50°</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60°</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70°</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80°</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>90°</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3082,59 +4852,109 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gpuMss</c:v>
+                  <c:v>GPU1 Mss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="C2D6F2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>임계각별Mtotal!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0°</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10°</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20°</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30°</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40°</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50°</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60°</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70°</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80°</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>90°</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3201,6 +5021,88 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>→critical angle(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ko-KR" b="1" i="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>θ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" b="1" baseline="-25000">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.851780272058277"/>
+              <c:y val="0.93890028557985949"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3223,16 +5125,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
@@ -3249,6 +5151,7 @@
         <c:axId val="500528592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3266,7 +5169,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>filament  mass [g]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.8661203839867086E-3"/>
+              <c:y val="0.33841163600046437"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3282,16 +5249,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
@@ -3324,16 +5291,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ko-KR"/>
@@ -3364,7 +5331,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
@@ -3372,12 +5342,12 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3393,7 +5363,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0994773964843034E-2"/>
+          <c:y val="4.5272519625147105E-2"/>
+          <c:w val="0.92371949446135682"/>
+          <c:h val="0.78423522638710574"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3407,14 +5387,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Intel i7-8700</c:v>
+                  <c:v>CPU1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3422,6 +5402,68 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-79BA-44E8-9C05-168DAF34C3F5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
@@ -3530,160 +5572,74 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>HW별속도!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AMD 5900X</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>HW별속도!$B$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>#1
-cube</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#2
-sphere</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#3
-cone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#4
-Bx2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#5
-B</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#6
-Bx0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#7
-B/5k</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#8
-B/1k</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#9
-mnk</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#10
-drg</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#11
-Buda</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#12
-Lucy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>HW별속도!$B$26:$M$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>87.884372999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.324453000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96.746105999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>185.39295899999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>185.65374499999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>172.71875600000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>93.143704999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>88.837778999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95.034284</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>182.50201799999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>126.26885900000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>135.31586100000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-02B8-487C-ABAC-CC0CC890B8FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>HW별속도!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AMD 7950X</c:v>
+                  <c:v>CPU2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
@@ -3793,28 +5749,95 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>HW별속도!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GTX 1050</c:v>
+                  <c:v>GPU1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="C2D6F2"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C2D6F2"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C542-4926-A141-A34F23E12CA0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
@@ -3924,28 +5947,71 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>HW별속도!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RTX 2060</c:v>
+                  <c:v>GPU2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="C2D6F2"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
@@ -4055,28 +6121,74 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>HW별속도!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RTX 3080</c:v>
+                  <c:v>GPU3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="C2D6F2"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
@@ -4186,30 +6298,74 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>HW별속도!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RTX 4090</c:v>
+                  <c:v>GPU4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="C2D6F2"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>HW별속도!$B$1:$M$1</c:f>
@@ -4318,8 +6474,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4337,6 +6494,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>→ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Mesh</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.86922294752520779"/>
+              <c:y val="0.93318716310182692"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4359,7 +6588,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4403,6 +6632,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                  <a:t>calculation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+                  <a:t> time[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9480598062727737E-3"/>
+              <c:y val="0.33389998248809033"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4512,7 +6809,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4598,6 +6895,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6137,6 +8474,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6154,10 +8994,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="화살표: 오른쪽 3">
+        <xdr:cNvPr id="2" name="화살표: 오른쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55040CC0-58C0-4BA5-845C-F0504453C2A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A425CD-B9AB-4AB4-92E8-0ECE318D6696}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6165,8 +9005,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13366750" y="1277620"/>
-          <a:ext cx="1694180" cy="896620"/>
+          <a:off x="13210540" y="1752600"/>
+          <a:ext cx="1724660" cy="1402080"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -6214,10 +9054,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D84EC9-B2EE-4F30-B819-CE25B9DE7433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8356B1EE-1732-46A2-848C-B2D2E3DA93FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6237,6 +9077,104 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>215264</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B112C41-BB32-4E51-92A1-3697897C3C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="화살표: 오른쪽 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136B215C-C0B8-485A-9D80-9CF18616E1E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6835140" y="14599920"/>
+          <a:ext cx="358140" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6244,16 +9182,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161372</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>210669</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>170330</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>663388</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6286,15 +9224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457509</xdr:colOff>
+      <xdr:colOff>510210</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>136635</xdr:rowOff>
+      <xdr:rowOff>77000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>107886</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>664478</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:rowOff>602974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6320,6 +9258,796 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="형상별Mtotal"/>
+      <sheetName val="임계각별Mtotal"/>
+      <sheetName val="HW별속도"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="Y1" t="str">
+            <v>Mo</v>
+          </cell>
+          <cell r="Z1" t="str">
+            <v>Mss</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="W2" t="str">
+            <v>#1
+cube</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="X3" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y3">
+            <v>35.6</v>
+          </cell>
+          <cell r="Z3">
+            <v>3.2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="X4" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y4">
+            <v>35.03</v>
+          </cell>
+          <cell r="Z4">
+            <v>2.4900000000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="X5" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y5">
+            <v>35.03</v>
+          </cell>
+          <cell r="Z5">
+            <v>1.37</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="W7" t="str">
+            <v>#2
+sphere</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="X8" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y8">
+            <v>58.8</v>
+          </cell>
+          <cell r="Z8">
+            <v>2.4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="X9" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y9">
+            <v>54.59</v>
+          </cell>
+          <cell r="Z9">
+            <v>2.23</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="X10" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y10">
+            <v>52.83</v>
+          </cell>
+          <cell r="Z10">
+            <v>1.53</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="W12" t="str">
+            <v>#3
+cone</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="X13" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y13">
+            <v>73.599999999999994</v>
+          </cell>
+          <cell r="Z13">
+            <v>9.1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="X14" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y14">
+            <v>67.66</v>
+          </cell>
+          <cell r="Z14">
+            <v>7.45</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="X15" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y15">
+            <v>67.069999999999993</v>
+          </cell>
+          <cell r="Z15">
+            <v>3.14</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="W17" t="str">
+            <v>#4
+Bx2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="X18" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y18">
+            <v>181.4</v>
+          </cell>
+          <cell r="Z18">
+            <v>26.6</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="X19" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y19">
+            <v>170.31</v>
+          </cell>
+          <cell r="Z19">
+            <v>20.92</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="X20" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y20">
+            <v>170.67</v>
+          </cell>
+          <cell r="Z20">
+            <v>17.190000000000001</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="W22" t="str">
+            <v>#5
+B</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="X23" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y23">
+            <v>29</v>
+          </cell>
+          <cell r="Z23">
+            <v>5.0999999999999996</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="X24" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y24">
+            <v>27.07</v>
+          </cell>
+          <cell r="Z24">
+            <v>3.89</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="X25" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y25">
+            <v>26.86</v>
+          </cell>
+          <cell r="Z25">
+            <v>3.11</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="W27" t="str">
+            <v>#6
+Bx0.5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="X28" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y28">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="Z28">
+            <v>1.2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="X29" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y29">
+            <v>4.84</v>
+          </cell>
+          <cell r="Z29">
+            <v>0.87</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="X30" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y30">
+            <v>4.6900000000000004</v>
+          </cell>
+          <cell r="Z30">
+            <v>0.75</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="W32" t="str">
+            <v>#7
+B/5k</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="X33" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y33">
+            <v>28.9</v>
+          </cell>
+          <cell r="Z33">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="X34" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y34">
+            <v>26.82</v>
+          </cell>
+          <cell r="Z34">
+            <v>4.12</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="X35" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y35">
+            <v>26.6</v>
+          </cell>
+          <cell r="Z35">
+            <v>3.13</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="W37" t="str">
+            <v>#8
+B/1k</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="X38" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y38">
+            <v>28.8</v>
+          </cell>
+          <cell r="Z38">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="X39" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y39">
+            <v>26.7</v>
+          </cell>
+          <cell r="Z39">
+            <v>3.83</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="X40" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y40">
+            <v>26.51</v>
+          </cell>
+          <cell r="Z40">
+            <v>1.71</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="W42" t="str">
+            <v>#9
+mnk</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="X43" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y43">
+            <v>22.3</v>
+          </cell>
+          <cell r="Z43">
+            <v>11.3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="X44" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y44">
+            <v>22.8</v>
+          </cell>
+          <cell r="Z44">
+            <v>5.87</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="X45" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y45">
+            <v>22.9</v>
+          </cell>
+          <cell r="Z45">
+            <v>4.91</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="W47" t="str">
+            <v>#10
+drg</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="X48" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y48">
+            <v>96</v>
+          </cell>
+          <cell r="Z48">
+            <v>24.4</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="K49" t="str">
+            <v>Mss</v>
+          </cell>
+          <cell r="N49" t="str">
+            <v>Mo</v>
+          </cell>
+          <cell r="X49" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y49">
+            <v>87.97</v>
+          </cell>
+          <cell r="Z49">
+            <v>17.940000000000001</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="K50" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="L50" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="M50" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="N50" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="O50" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="P50" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="X50" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y50">
+            <v>87.22</v>
+          </cell>
+          <cell r="Z50">
+            <v>14.62</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="J51" t="str">
+            <v>#1
+cube</v>
+          </cell>
+          <cell r="K51">
+            <v>38.800000000000004</v>
+          </cell>
+          <cell r="L51">
+            <v>37.520000000000003</v>
+          </cell>
+          <cell r="M51">
+            <v>36.4</v>
+          </cell>
+          <cell r="N51">
+            <v>35.6</v>
+          </cell>
+          <cell r="O51">
+            <v>35.03</v>
+          </cell>
+          <cell r="P51">
+            <v>35.03</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="J52" t="str">
+            <v>#2
+sphere</v>
+          </cell>
+          <cell r="K52">
+            <v>61.199999999999996</v>
+          </cell>
+          <cell r="L52">
+            <v>56.82</v>
+          </cell>
+          <cell r="M52">
+            <v>54.36</v>
+          </cell>
+          <cell r="N52">
+            <v>58.8</v>
+          </cell>
+          <cell r="O52">
+            <v>54.59</v>
+          </cell>
+          <cell r="P52">
+            <v>52.83</v>
+          </cell>
+          <cell r="W52" t="str">
+            <v>#11
+Buda</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="J53" t="str">
+            <v>#3
+cone</v>
+          </cell>
+          <cell r="K53">
+            <v>82.699999999999989</v>
+          </cell>
+          <cell r="L53">
+            <v>75.11</v>
+          </cell>
+          <cell r="M53">
+            <v>70.209999999999994</v>
+          </cell>
+          <cell r="N53">
+            <v>73.599999999999994</v>
+          </cell>
+          <cell r="O53">
+            <v>67.66</v>
+          </cell>
+          <cell r="P53">
+            <v>67.069999999999993</v>
+          </cell>
+          <cell r="X53" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y53">
+            <v>38.299999999999997</v>
+          </cell>
+          <cell r="Z53">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="J54" t="str">
+            <v>#4
+Bx2</v>
+          </cell>
+          <cell r="K54">
+            <v>208</v>
+          </cell>
+          <cell r="L54">
+            <v>191.23000000000002</v>
+          </cell>
+          <cell r="M54">
+            <v>187.85999999999999</v>
+          </cell>
+          <cell r="N54">
+            <v>181.4</v>
+          </cell>
+          <cell r="O54">
+            <v>170.31</v>
+          </cell>
+          <cell r="P54">
+            <v>170.67</v>
+          </cell>
+          <cell r="X54" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y54">
+            <v>37.130000000000003</v>
+          </cell>
+          <cell r="Z54">
+            <v>10.7</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="J55" t="str">
+            <v>#5
+B</v>
+          </cell>
+          <cell r="K55">
+            <v>34.1</v>
+          </cell>
+          <cell r="L55">
+            <v>30.96</v>
+          </cell>
+          <cell r="M55">
+            <v>29.97</v>
+          </cell>
+          <cell r="N55">
+            <v>29</v>
+          </cell>
+          <cell r="O55">
+            <v>27.07</v>
+          </cell>
+          <cell r="P55">
+            <v>26.86</v>
+          </cell>
+          <cell r="X55" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y55">
+            <v>35.6</v>
+          </cell>
+          <cell r="Z55">
+            <v>5.72</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="J56" t="str">
+            <v>#6
+Bx0.5</v>
+          </cell>
+          <cell r="K56">
+            <v>6.3</v>
+          </cell>
+          <cell r="L56">
+            <v>5.71</v>
+          </cell>
+          <cell r="M56">
+            <v>5.44</v>
+          </cell>
+          <cell r="N56">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="O56">
+            <v>4.84</v>
+          </cell>
+          <cell r="P56">
+            <v>4.6900000000000004</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="J57" t="str">
+            <v>#7
+B/5k</v>
+          </cell>
+          <cell r="K57">
+            <v>33.9</v>
+          </cell>
+          <cell r="L57">
+            <v>30.94</v>
+          </cell>
+          <cell r="M57">
+            <v>29.73</v>
+          </cell>
+          <cell r="N57">
+            <v>28.9</v>
+          </cell>
+          <cell r="O57">
+            <v>26.82</v>
+          </cell>
+          <cell r="P57">
+            <v>26.6</v>
+          </cell>
+          <cell r="W57" t="str">
+            <v>#12
+Lucy</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="J58" t="str">
+            <v>#8
+B/1k</v>
+          </cell>
+          <cell r="K58">
+            <v>33.799999999999997</v>
+          </cell>
+          <cell r="L58">
+            <v>30.53</v>
+          </cell>
+          <cell r="M58">
+            <v>28.220000000000002</v>
+          </cell>
+          <cell r="N58">
+            <v>28.8</v>
+          </cell>
+          <cell r="O58">
+            <v>26.7</v>
+          </cell>
+          <cell r="P58">
+            <v>26.51</v>
+          </cell>
+          <cell r="X58" t="str">
+            <v>Slicer</v>
+          </cell>
+          <cell r="Y58">
+            <v>50.9</v>
+          </cell>
+          <cell r="Z58">
+            <v>10.8</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="J59" t="str">
+            <v>#9
+mnk</v>
+          </cell>
+          <cell r="K59">
+            <v>33.6</v>
+          </cell>
+          <cell r="L59">
+            <v>28.67</v>
+          </cell>
+          <cell r="M59">
+            <v>27.81</v>
+          </cell>
+          <cell r="N59">
+            <v>22.3</v>
+          </cell>
+          <cell r="O59">
+            <v>22.8</v>
+          </cell>
+          <cell r="P59">
+            <v>22.9</v>
+          </cell>
+          <cell r="X59" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="Y59">
+            <v>48.86</v>
+          </cell>
+          <cell r="Z59">
+            <v>4.79</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="J60" t="str">
+            <v>#10
+drg</v>
+          </cell>
+          <cell r="K60">
+            <v>120.4</v>
+          </cell>
+          <cell r="L60">
+            <v>105.91</v>
+          </cell>
+          <cell r="M60">
+            <v>101.84</v>
+          </cell>
+          <cell r="N60">
+            <v>96</v>
+          </cell>
+          <cell r="O60">
+            <v>87.97</v>
+          </cell>
+          <cell r="P60">
+            <v>87.22</v>
+          </cell>
+          <cell r="X60" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="Y60">
+            <v>49.06</v>
+          </cell>
+          <cell r="Z60">
+            <v>5.19</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="J61" t="str">
+            <v>#11
+Buda</v>
+          </cell>
+          <cell r="K61">
+            <v>46.3</v>
+          </cell>
+          <cell r="L61">
+            <v>47.83</v>
+          </cell>
+          <cell r="M61">
+            <v>41.32</v>
+          </cell>
+          <cell r="N61">
+            <v>38.299999999999997</v>
+          </cell>
+          <cell r="O61">
+            <v>37.130000000000003</v>
+          </cell>
+          <cell r="P61">
+            <v>35.6</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="J62" t="str">
+            <v>#12
+Lucy</v>
+          </cell>
+          <cell r="K62">
+            <v>61.7</v>
+          </cell>
+          <cell r="L62">
+            <v>53.65</v>
+          </cell>
+          <cell r="M62">
+            <v>54.25</v>
+          </cell>
+          <cell r="N62">
+            <v>50.9</v>
+          </cell>
+          <cell r="O62">
+            <v>48.86</v>
+          </cell>
+          <cell r="P62">
+            <v>49.06</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6618,48 +10346,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AE61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436D07ED-6439-43D2-9403-4BF5002283BA}">
+  <dimension ref="B1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="5.19921875" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" customWidth="1"/>
+    <col min="26" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B1" s="62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
       <c r="G1" s="65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="62"/>
       <c r="I1" s="62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
-      <c r="M1" s="41"/>
+      <c r="M1" s="38"/>
       <c r="Y1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Z1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="AE1" s="17"/>
     </row>
     <row r="2" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B2" s="62"/>
@@ -6670,20 +10399,20 @@
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="62"/>
       <c r="K2" s="62" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="L2" s="62"/>
-      <c r="M2" s="41"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="62" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O2" s="63"/>
       <c r="P2" s="62" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="62"/>
       <c r="W2" t="str">
@@ -6693,76 +10422,76 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>38</v>
+      <c r="B3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>33</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="M3" s="34"/>
       <c r="N3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>20</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="R3" s="34"/>
       <c r="X3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="13">
         <f>G4</f>
         <v>35.6</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="13">
         <f>H4</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="4" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="58" t="s">
-        <v>126</v>
-      </c>
       <c r="F4" s="60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
         <v>35.6</v>
@@ -6770,57 +10499,57 @@
       <c r="H4" s="7">
         <v>3.2</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>35.03</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>2.4900000000000002</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="36">
         <v>35.03</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="36">
         <v>1.37</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="39">
+      <c r="M4" s="35"/>
+      <c r="N4" s="36">
         <v>35.03</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="40">
         <v>1.37</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="12">
         <v>33.54</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <v>1.37</v>
       </c>
-      <c r="R4" s="38"/>
+      <c r="R4" s="35"/>
       <c r="X4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="13">
         <f>I4</f>
         <v>35.03</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="13">
         <f>J4</f>
         <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B5" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>102</v>
+      <c r="B5" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>89</v>
       </c>
       <c r="D5" s="60"/>
       <c r="E5" s="60" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7">
         <v>58.8</v>
@@ -6828,57 +10557,57 @@
       <c r="H5" s="7">
         <v>2.4</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>54.59</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>2.23</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="36">
         <v>52.83</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="36">
         <v>1.53</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39">
+      <c r="M5" s="35"/>
+      <c r="N5" s="36">
         <v>52.83</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="40">
         <v>1.53</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="12">
         <v>50.08</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <v>1.43</v>
       </c>
-      <c r="R5" s="38"/>
+      <c r="R5" s="35"/>
       <c r="X5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="13">
         <f>K4</f>
         <v>35.03</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="13">
         <f>L4</f>
         <v>1.37</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="B6" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>103</v>
+    <row r="6" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B6" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="60" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="7">
         <v>73.599999999999994</v>
@@ -6886,52 +10615,52 @@
       <c r="H6" s="7">
         <v>9.1</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>67.66</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>7.45</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="36">
         <v>67.069999999999993</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="36">
         <v>3.14</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="39">
+      <c r="M6" s="35"/>
+      <c r="N6" s="36">
         <v>67.069999999999993</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="40">
         <v>3.14</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="12">
         <v>60.26</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="12">
         <v>3.24</v>
       </c>
-      <c r="S6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
+      <c r="S6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="2:31" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>104</v>
+    <row r="7" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B7" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="64" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="7">
         <v>181.4</v>
@@ -6939,49 +10668,49 @@
       <c r="H7" s="7">
         <v>26.6</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>170.31</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>20.92</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="36">
         <v>170.67</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="36">
         <v>17.190000000000001</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="39">
+      <c r="M7" s="35"/>
+      <c r="N7" s="36">
         <v>170.67</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="40">
         <v>17.190000000000001</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>170.12</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <v>16.850000000000001</v>
       </c>
-      <c r="S7" s="18"/>
+      <c r="S7" s="16"/>
       <c r="W7" t="str">
         <f>C5&amp;D5</f>
         <v>#2
 sphere</v>
       </c>
     </row>
-    <row r="8" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B8" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>105</v>
+    <row r="8" spans="2:31" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B8" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>92</v>
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="64"/>
       <c r="F8" s="60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="7">
         <v>29</v>
@@ -6989,54 +10718,54 @@
       <c r="H8" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>27.07</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>3.89</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="36">
         <v>26.86</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="36">
         <v>3.11</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="39">
+      <c r="M8" s="35"/>
+      <c r="N8" s="36">
         <v>26.86</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="40">
         <v>3.11</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <v>26.91</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>3.09</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="13">
         <f>G5</f>
         <v>58.8</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="13">
         <f>H5</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B9" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>106</v>
+    <row r="9" spans="2:31" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B9" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="D9" s="60"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="7">
         <v>5.0999999999999996</v>
@@ -7044,56 +10773,56 @@
       <c r="H9" s="7">
         <v>1.2</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>4.84</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>0.87</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="36">
         <v>4.6900000000000004</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="36">
         <v>0.75</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="39">
+      <c r="M9" s="35"/>
+      <c r="N9" s="36">
         <v>4.6900000000000004</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="40">
         <v>0.75</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <v>4.6900000000000004</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <v>0.75</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y9" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="13">
         <f>I5</f>
         <v>54.59</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="13">
         <f>J5</f>
         <v>2.23</v>
       </c>
     </row>
     <row r="10" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B10" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>107</v>
+      <c r="B10" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>94</v>
       </c>
       <c r="D10" s="60"/>
       <c r="E10" s="60" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="7">
         <v>28.9</v>
@@ -7101,56 +10830,56 @@
       <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>26.82</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>4.12</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="36">
         <v>26.6</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="36">
         <v>3.13</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39">
+      <c r="M10" s="35"/>
+      <c r="N10" s="36">
         <v>26.6</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="40">
         <v>3.13</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="12">
         <v>26.16</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <v>2.84</v>
       </c>
       <c r="X10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y10" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y10" s="13">
         <f>K5</f>
         <v>52.83</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="Z10" s="13">
         <f>L5</f>
         <v>1.53</v>
       </c>
     </row>
     <row r="11" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B11" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>108</v>
+      <c r="B11" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="D11" s="60"/>
       <c r="E11" s="60" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="7">
         <v>28.8</v>
@@ -7158,49 +10887,49 @@
       <c r="H11" s="7">
         <v>5</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>26.7</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>3.83</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="36">
         <v>26.51</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="36">
         <v>1.71</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39">
+      <c r="M11" s="35"/>
+      <c r="N11" s="36">
         <v>26.51</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="40">
         <v>1.71</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="12">
         <v>26.27</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="12">
         <v>2.73</v>
       </c>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B12" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>109</v>
+      <c r="B12" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>96</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="60" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7">
         <v>22.3</v>
@@ -7208,29 +10937,29 @@
       <c r="H12" s="7">
         <v>11.3</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>22.8</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>5.87</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="36">
         <v>22.9</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="36">
         <v>4.91</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39">
+      <c r="M12" s="35"/>
+      <c r="N12" s="36">
         <v>22.9</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="40">
         <v>4.91</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="12">
         <v>23.16</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="12">
         <v>5.33</v>
       </c>
       <c r="W12" t="str">
@@ -7240,18 +10969,18 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B13" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>110</v>
+      <c r="B13" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>97</v>
       </c>
       <c r="D13" s="60"/>
       <c r="E13" s="60" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7">
         <v>96</v>
@@ -7259,56 +10988,56 @@
       <c r="H13" s="7">
         <v>24.4</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>87.97</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>17.940000000000001</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="36">
         <v>87.22</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="36">
         <v>14.62</v>
       </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="39">
+      <c r="M13" s="35"/>
+      <c r="N13" s="36">
         <v>87.22</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="40">
         <v>14.62</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="12">
         <v>84.43</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="12">
         <v>13.85</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="13">
         <f>G6</f>
         <v>73.599999999999994</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="13">
         <f>H6</f>
         <v>9.1</v>
       </c>
     </row>
     <row r="14" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="61"/>
+      <c r="B14" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="55"/>
       <c r="E14" s="60" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7">
         <v>38.299999999999997</v>
@@ -7316,26 +11045,26 @@
       <c r="H14" s="7">
         <v>8</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>37.130000000000003</v>
       </c>
       <c r="J14" s="9">
         <v>10.7</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="36">
         <v>35.6</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="37">
         <v>5.72</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="39">
+      <c r="M14" s="42"/>
+      <c r="N14" s="36">
         <v>35.6</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="41">
         <v>5.72</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <v>34.630000000000003</v>
       </c>
       <c r="Q14" s="9">
@@ -7343,30 +11072,30 @@
       </c>
       <c r="R14" s="8"/>
       <c r="X14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y14" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y14" s="13">
         <f>I6</f>
         <v>67.66</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="Z14" s="13">
         <f>J6</f>
         <v>7.45</v>
       </c>
     </row>
     <row r="15" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B15" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="61"/>
+      <c r="B15" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="55"/>
       <c r="E15" s="60" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7">
         <v>50.9</v>
@@ -7374,51 +11103,51 @@
       <c r="H15" s="7">
         <v>10.8</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>48.86</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <v>4.79</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="36">
         <v>49.06</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="36">
         <v>5.19</v>
       </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39">
+      <c r="M15" s="35"/>
+      <c r="N15" s="36">
         <v>49.06</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="40">
         <v>5.19</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <v>49.79</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="12">
         <v>5.38</v>
       </c>
       <c r="X15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y15" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="13">
         <f>K6</f>
         <v>67.069999999999993</v>
       </c>
-      <c r="Z15" s="15">
+      <c r="Z15" s="13">
         <f>L6</f>
         <v>3.14</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="2:26" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="W17" t="str">
         <f>C7&amp;D7</f>
         <v>#4
@@ -7427,50 +11156,50 @@
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="13">
         <f>G7</f>
         <v>181.4</v>
       </c>
-      <c r="Z18" s="15">
+      <c r="Z18" s="13">
         <f>H7</f>
         <v>26.6</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y19" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y19" s="13">
         <f>I7</f>
         <v>170.31</v>
       </c>
-      <c r="Z19" s="15">
+      <c r="Z19" s="13">
         <f>J7</f>
         <v>20.92</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B20" s="22"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="44"/>
       <c r="X20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y20" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y20" s="13">
         <f>K7</f>
         <v>170.67</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="Z20" s="13">
         <f>L7</f>
         <v>17.190000000000001</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W22" t="str">
@@ -7481,48 +11210,48 @@
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y23" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="13">
         <f>G8</f>
         <v>29</v>
       </c>
-      <c r="Z23" s="15">
+      <c r="Z23" s="13">
         <f>H8</f>
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y24" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="13">
         <f>I8</f>
         <v>27.07</v>
       </c>
-      <c r="Z24" s="15">
+      <c r="Z24" s="13">
         <f>J8</f>
         <v>3.89</v>
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X25" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y25" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y25" s="13">
         <f>K8</f>
         <v>26.86</v>
       </c>
-      <c r="Z25" s="15">
+      <c r="Z25" s="13">
         <f>L8</f>
         <v>3.11</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W27" t="str">
@@ -7533,48 +11262,48 @@
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y28" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="13">
         <f>G9</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z28" s="15">
+      <c r="Z28" s="13">
         <f>H9</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y29" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y29" s="13">
         <f>I9</f>
         <v>4.84</v>
       </c>
-      <c r="Z29" s="15">
+      <c r="Z29" s="13">
         <f>J9</f>
         <v>0.87</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="X30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y30" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y30" s="13">
         <f>K9</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="Z30" s="15">
+      <c r="Z30" s="13">
         <f>L9</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.4">
       <c r="W32" t="str">
@@ -7585,48 +11314,48 @@
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y33" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y33" s="13">
         <f>G10</f>
         <v>28.9</v>
       </c>
-      <c r="Z33" s="15">
+      <c r="Z33" s="13">
         <f>H10</f>
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y34" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y34" s="13">
         <f>I10</f>
         <v>26.82</v>
       </c>
-      <c r="Z34" s="15">
+      <c r="Z34" s="13">
         <f>J10</f>
         <v>4.12</v>
       </c>
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X35" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y35" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y35" s="13">
         <f>K10</f>
         <v>26.6</v>
       </c>
-      <c r="Z35" s="15">
+      <c r="Z35" s="13">
         <f>L10</f>
         <v>3.13</v>
       </c>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.4">
       <c r="W37" t="str">
@@ -7637,51 +11366,51 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.4">
       <c r="F38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y38" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y38" s="13">
         <f>G11</f>
         <v>28.8</v>
       </c>
-      <c r="Z38" s="15">
+      <c r="Z38" s="13">
         <f>H11</f>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y39" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y39" s="13">
         <f>I11</f>
         <v>26.7</v>
       </c>
-      <c r="Z39" s="15">
+      <c r="Z39" s="13">
         <f>J11</f>
         <v>3.83</v>
       </c>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X40" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y40" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y40" s="13">
         <f>K11</f>
         <v>26.51</v>
       </c>
-      <c r="Z40" s="15">
+      <c r="Z40" s="13">
         <f>L11</f>
         <v>1.71</v>
       </c>
     </row>
     <row r="41" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
     </row>
     <row r="42" spans="3:26" x14ac:dyDescent="0.4">
       <c r="W42" t="str">
@@ -7692,200 +11421,200 @@
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y43" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y43" s="13">
         <f>G12</f>
         <v>22.3</v>
       </c>
-      <c r="Z43" s="15">
+      <c r="Z43" s="13">
         <f>H12</f>
         <v>11.3</v>
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C44" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="M44" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="N44" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>100</v>
+      <c r="C44" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y44" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y44" s="13">
         <f>I12</f>
         <v>22.8</v>
       </c>
-      <c r="Z44" s="15">
+      <c r="Z44" s="13">
         <f>J12</f>
         <v>5.87</v>
       </c>
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>42</v>
+      <c r="O45" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="X45" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y45" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y45" s="13">
         <f>K12</f>
         <v>22.9</v>
       </c>
-      <c r="Z45" s="15">
+      <c r="Z45" s="13">
         <f>L12</f>
         <v>4.91</v>
       </c>
     </row>
     <row r="46" spans="3:26" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D46" s="51" t="str">
+      <c r="D46" s="47" t="str">
         <f>D44&amp;CHAR(10)&amp;D45</f>
         <v>#1
 cube</v>
       </c>
-      <c r="E46" s="51" t="str">
+      <c r="E46" s="47" t="str">
         <f t="shared" ref="E46:O46" si="0">E44&amp;CHAR(10)&amp;E45</f>
         <v>#2
 sphere</v>
       </c>
-      <c r="F46" s="51" t="str">
+      <c r="F46" s="47" t="str">
         <f t="shared" si="0"/>
         <v>#3
 cone</v>
       </c>
-      <c r="G46" s="51" t="str">
+      <c r="G46" s="47" t="str">
         <f t="shared" si="0"/>
         <v>#4
 Bx2</v>
       </c>
-      <c r="H46" s="51" t="str">
+      <c r="H46" s="47" t="str">
         <f t="shared" si="0"/>
         <v>#5
 B</v>
       </c>
-      <c r="I46" s="51" t="str">
+      <c r="I46" s="47" t="str">
         <f t="shared" si="0"/>
         <v>#6
 Bx0.5</v>
       </c>
-      <c r="J46" s="51" t="str">
+      <c r="J46" s="47" t="str">
         <f t="shared" si="0"/>
         <v>#7
 B/5k</v>
       </c>
-      <c r="K46" s="51" t="str">
+      <c r="K46" s="47" t="str">
         <f t="shared" si="0"/>
         <v>#8
 B/1k</v>
       </c>
-      <c r="L46" s="51" t="str">
+      <c r="L46" s="47" t="str">
         <f t="shared" si="0"/>
         <v>#9
 mnk</v>
       </c>
-      <c r="M46" s="51" t="str">
+      <c r="M46" s="47" t="str">
         <f t="shared" si="0"/>
         <v>#10
 drg</v>
       </c>
-      <c r="N46" s="51" t="str">
+      <c r="N46" s="47" t="str">
         <f t="shared" si="0"/>
         <v>#11
 Buda</v>
       </c>
-      <c r="O46" s="51" t="str">
+      <c r="O46" s="47" t="str">
         <f t="shared" si="0"/>
         <v>#12
 Lucy</v>
       </c>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
     </row>
     <row r="47" spans="3:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
       <c r="W47" t="str">
         <f>C13&amp;D13</f>
         <v>#10
@@ -7894,167 +11623,1109 @@
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.4">
       <c r="X48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y48" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y48" s="13">
         <f>G13</f>
         <v>96</v>
       </c>
-      <c r="Z48" s="15">
+      <c r="Z48" s="13">
         <f>H13</f>
         <v>24.4</v>
       </c>
     </row>
-    <row r="49" spans="23:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C49" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="K49" t="s">
+        <v>153</v>
+      </c>
+      <c r="N49" t="s">
+        <v>154</v>
+      </c>
       <c r="X49" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y49" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y49" s="13">
         <f>I13</f>
         <v>87.97</v>
       </c>
-      <c r="Z49" s="15">
+      <c r="Z49" s="13">
         <f>J13</f>
         <v>17.940000000000001</v>
       </c>
     </row>
-    <row r="50" spans="23:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" t="s">
+        <v>155</v>
+      </c>
+      <c r="L50" t="s">
+        <v>156</v>
+      </c>
+      <c r="M50" t="s">
+        <v>157</v>
+      </c>
+      <c r="N50" t="s">
+        <v>155</v>
+      </c>
+      <c r="O50" t="s">
+        <v>156</v>
+      </c>
+      <c r="P50" t="s">
+        <v>157</v>
+      </c>
       <c r="X50" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y50" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y50" s="13">
         <f>K13</f>
         <v>87.22</v>
       </c>
-      <c r="Z50" s="15">
+      <c r="Z50" s="13">
         <f>L13</f>
         <v>14.62</v>
       </c>
     </row>
-    <row r="51" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B51" t="str">
+        <f>C4</f>
+        <v>#1
+cube</v>
+      </c>
+      <c r="C51" s="13">
+        <f>G4</f>
+        <v>35.6</v>
+      </c>
+      <c r="D51" s="13">
+        <f>I4</f>
+        <v>35.03</v>
+      </c>
+      <c r="E51" s="13">
+        <f>K4</f>
+        <v>35.03</v>
+      </c>
+      <c r="F51" s="13">
+        <f>H4</f>
+        <v>3.2</v>
+      </c>
+      <c r="G51" s="13">
+        <f>J4</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H51" s="13">
+        <f>L4</f>
+        <v>1.37</v>
+      </c>
+      <c r="J51" t="s">
+        <v>88</v>
+      </c>
+      <c r="K51">
+        <f>C66+F66</f>
+        <v>38.800000000000004</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ref="L51:M62" si="1">D66+G66</f>
+        <v>37.520000000000003</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>36.4</v>
+      </c>
+      <c r="N51">
+        <v>35.6</v>
+      </c>
+      <c r="O51">
+        <v>35.03</v>
+      </c>
+      <c r="P51">
+        <v>35.03</v>
+      </c>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="23:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B52" t="str">
+        <f t="shared" ref="B52:B62" si="2">C5</f>
+        <v>#2
+sphere</v>
+      </c>
+      <c r="C52" s="13">
+        <f t="shared" ref="C52:C62" si="3">G5</f>
+        <v>58.8</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" ref="D52:D62" si="4">I5</f>
+        <v>54.59</v>
+      </c>
+      <c r="E52" s="13">
+        <f t="shared" ref="E52:E62" si="5">K5</f>
+        <v>52.83</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" ref="F52:F62" si="6">H5</f>
+        <v>2.4</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" ref="G52:G62" si="7">J5</f>
+        <v>2.23</v>
+      </c>
+      <c r="H52" s="13">
+        <f t="shared" ref="H52:H62" si="8">L5</f>
+        <v>1.53</v>
+      </c>
+      <c r="J52" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ref="K52:K62" si="9">C67+F67</f>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>56.82</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="1"/>
+        <v>54.36</v>
+      </c>
+      <c r="N52">
+        <v>58.8</v>
+      </c>
+      <c r="O52">
+        <v>54.59</v>
+      </c>
+      <c r="P52">
+        <v>52.83</v>
+      </c>
       <c r="W52" t="str">
         <f>C14&amp;D14</f>
         <v>#11
 Buda</v>
       </c>
     </row>
-    <row r="53" spans="23:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B53" t="str">
+        <f t="shared" si="2"/>
+        <v>#3
+cone</v>
+      </c>
+      <c r="C53" s="13">
+        <f t="shared" si="3"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="4"/>
+        <v>67.66</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="5"/>
+        <v>67.069999999999993</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="6"/>
+        <v>9.1</v>
+      </c>
+      <c r="G53" s="13">
+        <f t="shared" si="7"/>
+        <v>7.45</v>
+      </c>
+      <c r="H53" s="13">
+        <f t="shared" si="8"/>
+        <v>3.14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="9"/>
+        <v>82.699999999999989</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>75.11</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>70.209999999999994</v>
+      </c>
+      <c r="N53">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="O53">
+        <v>67.66</v>
+      </c>
+      <c r="P53">
+        <v>67.069999999999993</v>
+      </c>
       <c r="X53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y53" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y53" s="13">
         <f>G14</f>
         <v>38.299999999999997</v>
       </c>
-      <c r="Z53" s="15">
+      <c r="Z53" s="13">
         <f>H14</f>
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="23:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B54" t="str">
+        <f t="shared" si="2"/>
+        <v>#4
+Bx2</v>
+      </c>
+      <c r="C54" s="13">
+        <f t="shared" si="3"/>
+        <v>181.4</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="4"/>
+        <v>170.31</v>
+      </c>
+      <c r="E54" s="13">
+        <f t="shared" si="5"/>
+        <v>170.67</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="6"/>
+        <v>26.6</v>
+      </c>
+      <c r="G54" s="13">
+        <f t="shared" si="7"/>
+        <v>20.92</v>
+      </c>
+      <c r="H54" s="13">
+        <f t="shared" si="8"/>
+        <v>17.190000000000001</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="9"/>
+        <v>208</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>191.23000000000002</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>187.85999999999999</v>
+      </c>
+      <c r="N54">
+        <v>181.4</v>
+      </c>
+      <c r="O54">
+        <v>170.31</v>
+      </c>
+      <c r="P54">
+        <v>170.67</v>
+      </c>
       <c r="X54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y54" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y54" s="13">
         <f>I14</f>
         <v>37.130000000000003</v>
       </c>
-      <c r="Z54" s="15">
+      <c r="Z54" s="13">
         <f>J14</f>
         <v>10.7</v>
       </c>
     </row>
-    <row r="55" spans="23:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B55" t="str">
+        <f t="shared" si="2"/>
+        <v>#5
+B</v>
+      </c>
+      <c r="C55" s="13">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="D55" s="13">
+        <f t="shared" si="4"/>
+        <v>27.07</v>
+      </c>
+      <c r="E55" s="13">
+        <f t="shared" si="5"/>
+        <v>26.86</v>
+      </c>
+      <c r="F55" s="13">
+        <f t="shared" si="6"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G55" s="13">
+        <f t="shared" si="7"/>
+        <v>3.89</v>
+      </c>
+      <c r="H55" s="13">
+        <f t="shared" si="8"/>
+        <v>3.11</v>
+      </c>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="9"/>
+        <v>34.1</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>30.96</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>29.97</v>
+      </c>
+      <c r="N55">
+        <v>29</v>
+      </c>
+      <c r="O55">
+        <v>27.07</v>
+      </c>
+      <c r="P55">
+        <v>26.86</v>
+      </c>
       <c r="X55" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y55" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="13">
         <f>K14</f>
         <v>35.6</v>
       </c>
-      <c r="Z55" s="15">
+      <c r="Z55" s="13">
         <f>L14</f>
         <v>5.72</v>
       </c>
     </row>
-    <row r="56" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B56" t="str">
+        <f t="shared" si="2"/>
+        <v>#6
+Bx0.5</v>
+      </c>
+      <c r="C56" s="13">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D56" s="13">
+        <f t="shared" si="4"/>
+        <v>4.84</v>
+      </c>
+      <c r="E56" s="13">
+        <f t="shared" si="5"/>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F56" s="13">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="G56" s="13">
+        <f t="shared" si="7"/>
+        <v>0.87</v>
+      </c>
+      <c r="H56" s="13">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="9"/>
+        <v>6.3</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>5.71</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>5.44</v>
+      </c>
+      <c r="N56">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O56">
+        <v>4.84</v>
+      </c>
+      <c r="P56">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="23:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B57" t="str">
+        <f t="shared" si="2"/>
+        <v>#7
+B/5k</v>
+      </c>
+      <c r="C57" s="13">
+        <f t="shared" si="3"/>
+        <v>28.9</v>
+      </c>
+      <c r="D57" s="13">
+        <f t="shared" si="4"/>
+        <v>26.82</v>
+      </c>
+      <c r="E57" s="13">
+        <f t="shared" si="5"/>
+        <v>26.6</v>
+      </c>
+      <c r="F57" s="13">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G57" s="13">
+        <f t="shared" si="7"/>
+        <v>4.12</v>
+      </c>
+      <c r="H57" s="13">
+        <f t="shared" si="8"/>
+        <v>3.13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="9"/>
+        <v>33.9</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>30.94</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>29.73</v>
+      </c>
+      <c r="N57">
+        <v>28.9</v>
+      </c>
+      <c r="O57">
+        <v>26.82</v>
+      </c>
+      <c r="P57">
+        <v>26.6</v>
+      </c>
       <c r="W57" t="str">
         <f>C15&amp;D15</f>
         <v>#12
 Lucy</v>
       </c>
     </row>
-    <row r="58" spans="23:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B58" t="str">
+        <f t="shared" si="2"/>
+        <v>#8
+B/1k</v>
+      </c>
+      <c r="C58" s="13">
+        <f t="shared" si="3"/>
+        <v>28.8</v>
+      </c>
+      <c r="D58" s="13">
+        <f t="shared" si="4"/>
+        <v>26.7</v>
+      </c>
+      <c r="E58" s="13">
+        <f t="shared" si="5"/>
+        <v>26.51</v>
+      </c>
+      <c r="F58" s="13">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G58" s="13">
+        <f t="shared" si="7"/>
+        <v>3.83</v>
+      </c>
+      <c r="H58" s="13">
+        <f t="shared" si="8"/>
+        <v>1.71</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="9"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>30.53</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>28.220000000000002</v>
+      </c>
+      <c r="N58">
+        <v>28.8</v>
+      </c>
+      <c r="O58">
+        <v>26.7</v>
+      </c>
+      <c r="P58">
+        <v>26.51</v>
+      </c>
       <c r="X58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y58" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y58" s="13">
         <f>G15</f>
         <v>50.9</v>
       </c>
-      <c r="Z58" s="15">
+      <c r="Z58" s="13">
         <f>H15</f>
         <v>10.8</v>
       </c>
     </row>
-    <row r="59" spans="23:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B59" t="str">
+        <f t="shared" si="2"/>
+        <v>#9
+mnk</v>
+      </c>
+      <c r="C59" s="13">
+        <f t="shared" si="3"/>
+        <v>22.3</v>
+      </c>
+      <c r="D59" s="13">
+        <f t="shared" si="4"/>
+        <v>22.8</v>
+      </c>
+      <c r="E59" s="13">
+        <f t="shared" si="5"/>
+        <v>22.9</v>
+      </c>
+      <c r="F59" s="13">
+        <f t="shared" si="6"/>
+        <v>11.3</v>
+      </c>
+      <c r="G59" s="13">
+        <f t="shared" si="7"/>
+        <v>5.87</v>
+      </c>
+      <c r="H59" s="13">
+        <f t="shared" si="8"/>
+        <v>4.91</v>
+      </c>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="9"/>
+        <v>33.6</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>28.67</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>27.81</v>
+      </c>
+      <c r="N59">
+        <v>22.3</v>
+      </c>
+      <c r="O59">
+        <v>22.8</v>
+      </c>
+      <c r="P59">
+        <v>22.9</v>
+      </c>
       <c r="X59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y59" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y59" s="13">
         <f>I15</f>
         <v>48.86</v>
       </c>
-      <c r="Z59" s="15">
+      <c r="Z59" s="13">
         <f>J15</f>
         <v>4.79</v>
       </c>
     </row>
-    <row r="60" spans="23:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B60" t="str">
+        <f t="shared" si="2"/>
+        <v>#10
+drg</v>
+      </c>
+      <c r="C60" s="13">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="D60" s="13">
+        <f t="shared" si="4"/>
+        <v>87.97</v>
+      </c>
+      <c r="E60" s="13">
+        <f t="shared" si="5"/>
+        <v>87.22</v>
+      </c>
+      <c r="F60" s="13">
+        <f t="shared" si="6"/>
+        <v>24.4</v>
+      </c>
+      <c r="G60" s="13">
+        <f t="shared" si="7"/>
+        <v>17.940000000000001</v>
+      </c>
+      <c r="H60" s="13">
+        <f t="shared" si="8"/>
+        <v>14.62</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="9"/>
+        <v>120.4</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>105.91</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>101.84</v>
+      </c>
+      <c r="N60">
+        <v>96</v>
+      </c>
+      <c r="O60">
+        <v>87.97</v>
+      </c>
+      <c r="P60">
+        <v>87.22</v>
+      </c>
       <c r="X60" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y60" s="15">
+        <v>31</v>
+      </c>
+      <c r="Y60" s="13">
         <f>K15</f>
         <v>49.06</v>
       </c>
-      <c r="Z60" s="15">
+      <c r="Z60" s="13">
         <f>L15</f>
         <v>5.19</v>
       </c>
     </row>
-    <row r="61" spans="23:26" x14ac:dyDescent="0.4">
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
-      <c r="Z61" s="17"/>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B61" t="str">
+        <f t="shared" si="2"/>
+        <v>#11
+Buda</v>
+      </c>
+      <c r="C61" s="13">
+        <f t="shared" si="3"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D61" s="13">
+        <f t="shared" si="4"/>
+        <v>37.130000000000003</v>
+      </c>
+      <c r="E61" s="13">
+        <f t="shared" si="5"/>
+        <v>35.6</v>
+      </c>
+      <c r="F61" s="13">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="G61" s="13">
+        <f t="shared" si="7"/>
+        <v>10.7</v>
+      </c>
+      <c r="H61" s="13">
+        <f t="shared" si="8"/>
+        <v>5.72</v>
+      </c>
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="9"/>
+        <v>46.3</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>47.83</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>41.32</v>
+      </c>
+      <c r="N61">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="O61">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="P61">
+        <v>35.6</v>
+      </c>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B62" t="str">
+        <f t="shared" si="2"/>
+        <v>#12
+Lucy</v>
+      </c>
+      <c r="C62" s="13">
+        <f t="shared" si="3"/>
+        <v>50.9</v>
+      </c>
+      <c r="D62" s="13">
+        <f t="shared" si="4"/>
+        <v>48.86</v>
+      </c>
+      <c r="E62" s="13">
+        <f t="shared" si="5"/>
+        <v>49.06</v>
+      </c>
+      <c r="F62" s="13">
+        <f t="shared" si="6"/>
+        <v>10.8</v>
+      </c>
+      <c r="G62" s="13">
+        <f t="shared" si="7"/>
+        <v>4.79</v>
+      </c>
+      <c r="H62" s="13">
+        <f t="shared" si="8"/>
+        <v>5.19</v>
+      </c>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="9"/>
+        <v>61.7</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>53.65</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>54.25</v>
+      </c>
+      <c r="N62">
+        <v>50.9</v>
+      </c>
+      <c r="O62">
+        <v>48.86</v>
+      </c>
+      <c r="P62">
+        <v>49.06</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C66">
+        <v>35.6</v>
+      </c>
+      <c r="D66">
+        <v>35.03</v>
+      </c>
+      <c r="E66">
+        <v>35.03</v>
+      </c>
+      <c r="F66">
+        <v>3.2</v>
+      </c>
+      <c r="G66">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H66">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C67">
+        <v>58.8</v>
+      </c>
+      <c r="D67">
+        <v>54.59</v>
+      </c>
+      <c r="E67">
+        <v>52.83</v>
+      </c>
+      <c r="F67">
+        <v>2.4</v>
+      </c>
+      <c r="G67">
+        <v>2.23</v>
+      </c>
+      <c r="H67">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C68">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D68">
+        <v>67.66</v>
+      </c>
+      <c r="E68">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="F68">
+        <v>9.1</v>
+      </c>
+      <c r="G68">
+        <v>7.45</v>
+      </c>
+      <c r="H68">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C69">
+        <v>181.4</v>
+      </c>
+      <c r="D69">
+        <v>170.31</v>
+      </c>
+      <c r="E69">
+        <v>170.67</v>
+      </c>
+      <c r="F69">
+        <v>26.6</v>
+      </c>
+      <c r="G69">
+        <v>20.92</v>
+      </c>
+      <c r="H69">
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C70">
+        <v>29</v>
+      </c>
+      <c r="D70">
+        <v>27.07</v>
+      </c>
+      <c r="E70">
+        <v>26.86</v>
+      </c>
+      <c r="F70">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G70">
+        <v>3.89</v>
+      </c>
+      <c r="H70">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C71">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D71">
+        <v>4.84</v>
+      </c>
+      <c r="E71">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F71">
+        <v>1.2</v>
+      </c>
+      <c r="G71">
+        <v>0.87</v>
+      </c>
+      <c r="H71">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C72">
+        <v>28.9</v>
+      </c>
+      <c r="D72">
+        <v>26.82</v>
+      </c>
+      <c r="E72">
+        <v>26.6</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>4.12</v>
+      </c>
+      <c r="H72">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C73">
+        <v>28.8</v>
+      </c>
+      <c r="D73">
+        <v>26.7</v>
+      </c>
+      <c r="E73">
+        <v>26.51</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>3.83</v>
+      </c>
+      <c r="H73">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C74">
+        <v>22.3</v>
+      </c>
+      <c r="D74">
+        <v>22.8</v>
+      </c>
+      <c r="E74">
+        <v>22.9</v>
+      </c>
+      <c r="F74">
+        <v>11.3</v>
+      </c>
+      <c r="G74">
+        <v>5.87</v>
+      </c>
+      <c r="H74">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C75">
+        <v>96</v>
+      </c>
+      <c r="D75">
+        <v>87.97</v>
+      </c>
+      <c r="E75">
+        <v>87.22</v>
+      </c>
+      <c r="F75">
+        <v>24.4</v>
+      </c>
+      <c r="G75">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="H75">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C76">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D76">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="E76">
+        <v>35.6</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76">
+        <v>10.7</v>
+      </c>
+      <c r="H76">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C77">
+        <v>50.9</v>
+      </c>
+      <c r="D77">
+        <v>48.86</v>
+      </c>
+      <c r="E77">
+        <v>49.06</v>
+      </c>
+      <c r="F77">
+        <v>10.8</v>
+      </c>
+      <c r="G77">
+        <v>4.79</v>
+      </c>
+      <c r="H77">
+        <v>5.19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S6" r:id="rId1" xr:uid="{75E55D39-D6FF-4078-8776-430B1FA3B564}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8067,470 +12738,470 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="9" style="25"/>
-    <col min="3" max="3" width="12.8984375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="18.59765625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9" style="22"/>
+    <col min="3" max="3" width="12.8984375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="24"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="66" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="66" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="F2" s="66"/>
       <c r="G2" s="66" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="H2" s="66"/>
       <c r="J2" s="66" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K2" s="66"/>
       <c r="L2" s="66" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>63</v>
+      <c r="A3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="29">
-        <v>0</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="A4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="30">
         <v>58.8</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <v>54.59</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>20.37</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="22">
         <v>52.31</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="24">
         <v>13.94</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="22">
         <v>52.31</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="24">
         <v>13.94</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="22">
         <v>51.03</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="24">
         <v>13.56</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="29">
-        <v>10</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="A5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="30">
         <v>58.8</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="29">
         <v>18.3</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>54.59</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>18.55</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="22">
         <v>52.26</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="24">
         <v>13.22</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="22">
         <v>52.26</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="24">
         <v>13.22</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="22">
         <v>50.87</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="24">
         <v>12.44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="29">
-        <v>20</v>
-      </c>
-      <c r="C6" s="33">
+      <c r="A6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="30">
         <v>58.8</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="29">
         <v>15.2</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>54.59</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>15.64</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>52.49</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="24">
         <v>10.92</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="22">
         <v>52.49</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="24">
         <v>10.92</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <v>50.65</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="24">
         <v>10.58</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="29">
-        <v>30</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="A7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="30">
         <v>58.8</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <v>11.6</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>54.59</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="24">
         <v>11.84</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>52.23</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>8.0299999999999994</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="22">
         <v>52.23</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <v>8.0299999999999994</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <v>50.74</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="22">
         <v>7.69</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="29">
-        <v>40</v>
-      </c>
-      <c r="C8" s="33">
+      <c r="A8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="30">
         <v>58.8</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="29">
         <v>7.8</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <v>54.59</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="24">
         <v>7.91</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="24">
         <v>52.41</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="24">
         <v>5.39</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <v>52.41</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="24">
         <v>5.39</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="24">
         <v>51.02</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="24">
         <v>5.14</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="29">
-        <v>50</v>
-      </c>
-      <c r="C9" s="33">
+      <c r="A9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="30">
         <v>58.8</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="29">
         <v>4.7</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <v>54.59</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="24">
         <v>4.62</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="24">
         <v>52.38</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="24">
         <v>3.15</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="24">
         <v>52.38</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="24">
         <v>3.15</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="24">
         <v>50.92</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="24">
         <v>2.94</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="29">
-        <v>60</v>
-      </c>
-      <c r="C10" s="33">
+      <c r="A10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="30">
         <v>58.8</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="29">
         <v>2.4</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <v>54.59</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="24">
         <v>2.23</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="24">
         <v>52.22</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="24">
         <v>1.51</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="24">
         <v>52.22</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="24">
         <v>1.51</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="24">
         <v>50.99</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="24">
         <v>1.43</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="29">
-        <v>70</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="A11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="30">
         <v>58.8</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="29">
         <v>1.2</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>54.59</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="24">
         <v>0.92</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="24">
         <v>52.49</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="24">
         <v>0.6</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="24">
         <v>52.49</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="24">
         <v>0.6</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="24">
         <v>50.87</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="24">
         <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="29">
-        <v>80</v>
-      </c>
-      <c r="C12" s="33">
+      <c r="A12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="30">
         <v>58.8</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="29">
         <v>0.4</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <v>54.59</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="24">
         <v>0.17</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="24">
         <v>52.19</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="24">
         <v>0.25</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="24">
         <v>52.19</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="24">
         <v>0.25</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="24">
         <v>50.69</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="24">
         <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="29">
-        <v>90</v>
-      </c>
-      <c r="C13" s="33">
+      <c r="A13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="30">
         <v>58.8</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="29">
         <v>0.1</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="22">
         <v>54.59</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="24">
         <v>0</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="24">
         <v>52.39</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="24">
         <v>0.25</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="24">
         <v>52.39</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="24">
         <v>0.25</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="24">
         <v>50.47</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="24">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C14" s="30"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E17" s="25" t="s">
-        <v>65</v>
+      <c r="E17" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -8543,17 +13214,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8564,46 +13235,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B1" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="52" t="s">
-        <v>112</v>
+      <c r="B1" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="49" t="s">
-        <v>13</v>
+      <c r="A2" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="B2">
         <v>397.47483599999998</v>
@@ -8644,7 +13315,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>78.462999999999994</v>
@@ -8685,7 +13356,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>235.02652699999999</v>
@@ -8726,7 +13397,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B5">
         <v>47.207138</v>
@@ -8767,7 +13438,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>19.735993000000001</v>
@@ -8808,7 +13479,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1">
         <v>10.012051</v>
@@ -8849,172 +13520,196 @@
     </row>
     <row r="10" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A11" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="68"/>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="36" t="s">
-        <v>81</v>
+      <c r="A13" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>69</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>72</v>
+      <c r="A14" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="36" t="s">
-        <v>73</v>
+      <c r="A15" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>17</v>
+      <c r="D18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="68"/>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="68"/>
+      <c r="D19" s="18" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2">
         <v>768</v>
       </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
-        <v>18</v>
+    <row r="21" spans="1:13" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4">
         <v>1920</v>
       </c>
+      <c r="D21" s="57" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="36" t="s">
-        <v>79</v>
+    <row r="22" spans="1:13" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4">
         <v>8704</v>
       </c>
+      <c r="D22" s="57" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="36" t="s">
-        <v>19</v>
+      <c r="A23" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4">
         <v>16384</v>
       </c>
+      <c r="D23" s="57" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="53">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="49">
         <v>87.884372999999997</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C29" s="49">
         <v>91.324453000000005</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D29" s="49">
         <v>96.746105999999997</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E29" s="49">
         <v>185.39295899999999</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F29" s="49">
         <v>185.65374499999999</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G29" s="49">
         <v>172.71875600000001</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H29" s="49">
         <v>93.143704999999997</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I29" s="49">
         <v>88.837778999999998</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J29" s="49">
         <v>95.034284</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K29" s="49">
         <v>182.50201799999999</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L29" s="49">
         <v>126.26885900000001</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M29" s="49">
         <v>135.31586100000001</v>
       </c>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L42" s="1"/>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9023,9 +13718,12 @@
     <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{CBF27CF5-B896-4FB9-BEF5-F2CE101E2040}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/_draft0/tomoGPU.xlsx
+++ b/_draft0/tomoGPU.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__TomoNV_Projects\Tomo_GPU2024\_draft0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61639147-E767-48C5-AA16-8ECDE5FC25CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE4330-8136-4E55-8871-477B84A8F775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="19860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="형상별Mtotal" sheetId="5" r:id="rId1"/>
-    <sheet name="임계각별Mtotal" sheetId="3" r:id="rId2"/>
-    <sheet name="HW별속도" sheetId="4" r:id="rId3"/>
+    <sheet name="B_2x" sheetId="6" r:id="rId2"/>
+    <sheet name="임계각별Mtotal" sheetId="3" r:id="rId3"/>
+    <sheet name="HW별속도" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -346,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="159">
   <si>
     <t>50x50x50</t>
   </si>
@@ -1106,16 +1104,21 @@
   <si>
     <t>GPU</t>
   </si>
+  <si>
+    <t>slicer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,6 +1301,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1470,15 +1481,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1668,14 +1682,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1686,11 +1703,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -9260,796 +9278,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="형상별Mtotal"/>
-      <sheetName val="임계각별Mtotal"/>
-      <sheetName val="HW별속도"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="Y1" t="str">
-            <v>Mo</v>
-          </cell>
-          <cell r="Z1" t="str">
-            <v>Mss</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="W2" t="str">
-            <v>#1
-cube</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="X3" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y3">
-            <v>35.6</v>
-          </cell>
-          <cell r="Z3">
-            <v>3.2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="X4" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y4">
-            <v>35.03</v>
-          </cell>
-          <cell r="Z4">
-            <v>2.4900000000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="X5" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y5">
-            <v>35.03</v>
-          </cell>
-          <cell r="Z5">
-            <v>1.37</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="W7" t="str">
-            <v>#2
-sphere</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="X8" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y8">
-            <v>58.8</v>
-          </cell>
-          <cell r="Z8">
-            <v>2.4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="X9" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y9">
-            <v>54.59</v>
-          </cell>
-          <cell r="Z9">
-            <v>2.23</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="X10" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y10">
-            <v>52.83</v>
-          </cell>
-          <cell r="Z10">
-            <v>1.53</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="W12" t="str">
-            <v>#3
-cone</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="X13" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y13">
-            <v>73.599999999999994</v>
-          </cell>
-          <cell r="Z13">
-            <v>9.1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="X14" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y14">
-            <v>67.66</v>
-          </cell>
-          <cell r="Z14">
-            <v>7.45</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="X15" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y15">
-            <v>67.069999999999993</v>
-          </cell>
-          <cell r="Z15">
-            <v>3.14</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="W17" t="str">
-            <v>#4
-Bx2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="X18" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y18">
-            <v>181.4</v>
-          </cell>
-          <cell r="Z18">
-            <v>26.6</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="X19" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y19">
-            <v>170.31</v>
-          </cell>
-          <cell r="Z19">
-            <v>20.92</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="X20" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y20">
-            <v>170.67</v>
-          </cell>
-          <cell r="Z20">
-            <v>17.190000000000001</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="W22" t="str">
-            <v>#5
-B</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="X23" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y23">
-            <v>29</v>
-          </cell>
-          <cell r="Z23">
-            <v>5.0999999999999996</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="X24" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y24">
-            <v>27.07</v>
-          </cell>
-          <cell r="Z24">
-            <v>3.89</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="X25" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y25">
-            <v>26.86</v>
-          </cell>
-          <cell r="Z25">
-            <v>3.11</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="W27" t="str">
-            <v>#6
-Bx0.5</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="X28" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y28">
-            <v>5.0999999999999996</v>
-          </cell>
-          <cell r="Z28">
-            <v>1.2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="X29" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y29">
-            <v>4.84</v>
-          </cell>
-          <cell r="Z29">
-            <v>0.87</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="X30" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y30">
-            <v>4.6900000000000004</v>
-          </cell>
-          <cell r="Z30">
-            <v>0.75</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="W32" t="str">
-            <v>#7
-B/5k</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="X33" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y33">
-            <v>28.9</v>
-          </cell>
-          <cell r="Z33">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="X34" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y34">
-            <v>26.82</v>
-          </cell>
-          <cell r="Z34">
-            <v>4.12</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="X35" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y35">
-            <v>26.6</v>
-          </cell>
-          <cell r="Z35">
-            <v>3.13</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="W37" t="str">
-            <v>#8
-B/1k</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="X38" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y38">
-            <v>28.8</v>
-          </cell>
-          <cell r="Z38">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="X39" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y39">
-            <v>26.7</v>
-          </cell>
-          <cell r="Z39">
-            <v>3.83</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="X40" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y40">
-            <v>26.51</v>
-          </cell>
-          <cell r="Z40">
-            <v>1.71</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="W42" t="str">
-            <v>#9
-mnk</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="X43" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y43">
-            <v>22.3</v>
-          </cell>
-          <cell r="Z43">
-            <v>11.3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="X44" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y44">
-            <v>22.8</v>
-          </cell>
-          <cell r="Z44">
-            <v>5.87</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="X45" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y45">
-            <v>22.9</v>
-          </cell>
-          <cell r="Z45">
-            <v>4.91</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="W47" t="str">
-            <v>#10
-drg</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="X48" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y48">
-            <v>96</v>
-          </cell>
-          <cell r="Z48">
-            <v>24.4</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="K49" t="str">
-            <v>Mss</v>
-          </cell>
-          <cell r="N49" t="str">
-            <v>Mo</v>
-          </cell>
-          <cell r="X49" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y49">
-            <v>87.97</v>
-          </cell>
-          <cell r="Z49">
-            <v>17.940000000000001</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="K50" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="L50" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="M50" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="N50" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="O50" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="P50" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="X50" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y50">
-            <v>87.22</v>
-          </cell>
-          <cell r="Z50">
-            <v>14.62</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51" t="str">
-            <v>#1
-cube</v>
-          </cell>
-          <cell r="K51">
-            <v>38.800000000000004</v>
-          </cell>
-          <cell r="L51">
-            <v>37.520000000000003</v>
-          </cell>
-          <cell r="M51">
-            <v>36.4</v>
-          </cell>
-          <cell r="N51">
-            <v>35.6</v>
-          </cell>
-          <cell r="O51">
-            <v>35.03</v>
-          </cell>
-          <cell r="P51">
-            <v>35.03</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52" t="str">
-            <v>#2
-sphere</v>
-          </cell>
-          <cell r="K52">
-            <v>61.199999999999996</v>
-          </cell>
-          <cell r="L52">
-            <v>56.82</v>
-          </cell>
-          <cell r="M52">
-            <v>54.36</v>
-          </cell>
-          <cell r="N52">
-            <v>58.8</v>
-          </cell>
-          <cell r="O52">
-            <v>54.59</v>
-          </cell>
-          <cell r="P52">
-            <v>52.83</v>
-          </cell>
-          <cell r="W52" t="str">
-            <v>#11
-Buda</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53" t="str">
-            <v>#3
-cone</v>
-          </cell>
-          <cell r="K53">
-            <v>82.699999999999989</v>
-          </cell>
-          <cell r="L53">
-            <v>75.11</v>
-          </cell>
-          <cell r="M53">
-            <v>70.209999999999994</v>
-          </cell>
-          <cell r="N53">
-            <v>73.599999999999994</v>
-          </cell>
-          <cell r="O53">
-            <v>67.66</v>
-          </cell>
-          <cell r="P53">
-            <v>67.069999999999993</v>
-          </cell>
-          <cell r="X53" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y53">
-            <v>38.299999999999997</v>
-          </cell>
-          <cell r="Z53">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54" t="str">
-            <v>#4
-Bx2</v>
-          </cell>
-          <cell r="K54">
-            <v>208</v>
-          </cell>
-          <cell r="L54">
-            <v>191.23000000000002</v>
-          </cell>
-          <cell r="M54">
-            <v>187.85999999999999</v>
-          </cell>
-          <cell r="N54">
-            <v>181.4</v>
-          </cell>
-          <cell r="O54">
-            <v>170.31</v>
-          </cell>
-          <cell r="P54">
-            <v>170.67</v>
-          </cell>
-          <cell r="X54" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y54">
-            <v>37.130000000000003</v>
-          </cell>
-          <cell r="Z54">
-            <v>10.7</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="J55" t="str">
-            <v>#5
-B</v>
-          </cell>
-          <cell r="K55">
-            <v>34.1</v>
-          </cell>
-          <cell r="L55">
-            <v>30.96</v>
-          </cell>
-          <cell r="M55">
-            <v>29.97</v>
-          </cell>
-          <cell r="N55">
-            <v>29</v>
-          </cell>
-          <cell r="O55">
-            <v>27.07</v>
-          </cell>
-          <cell r="P55">
-            <v>26.86</v>
-          </cell>
-          <cell r="X55" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y55">
-            <v>35.6</v>
-          </cell>
-          <cell r="Z55">
-            <v>5.72</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56" t="str">
-            <v>#6
-Bx0.5</v>
-          </cell>
-          <cell r="K56">
-            <v>6.3</v>
-          </cell>
-          <cell r="L56">
-            <v>5.71</v>
-          </cell>
-          <cell r="M56">
-            <v>5.44</v>
-          </cell>
-          <cell r="N56">
-            <v>5.0999999999999996</v>
-          </cell>
-          <cell r="O56">
-            <v>4.84</v>
-          </cell>
-          <cell r="P56">
-            <v>4.6900000000000004</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57" t="str">
-            <v>#7
-B/5k</v>
-          </cell>
-          <cell r="K57">
-            <v>33.9</v>
-          </cell>
-          <cell r="L57">
-            <v>30.94</v>
-          </cell>
-          <cell r="M57">
-            <v>29.73</v>
-          </cell>
-          <cell r="N57">
-            <v>28.9</v>
-          </cell>
-          <cell r="O57">
-            <v>26.82</v>
-          </cell>
-          <cell r="P57">
-            <v>26.6</v>
-          </cell>
-          <cell r="W57" t="str">
-            <v>#12
-Lucy</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58" t="str">
-            <v>#8
-B/1k</v>
-          </cell>
-          <cell r="K58">
-            <v>33.799999999999997</v>
-          </cell>
-          <cell r="L58">
-            <v>30.53</v>
-          </cell>
-          <cell r="M58">
-            <v>28.220000000000002</v>
-          </cell>
-          <cell r="N58">
-            <v>28.8</v>
-          </cell>
-          <cell r="O58">
-            <v>26.7</v>
-          </cell>
-          <cell r="P58">
-            <v>26.51</v>
-          </cell>
-          <cell r="X58" t="str">
-            <v>Slicer</v>
-          </cell>
-          <cell r="Y58">
-            <v>50.9</v>
-          </cell>
-          <cell r="Z58">
-            <v>10.8</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59" t="str">
-            <v>#9
-mnk</v>
-          </cell>
-          <cell r="K59">
-            <v>33.6</v>
-          </cell>
-          <cell r="L59">
-            <v>28.67</v>
-          </cell>
-          <cell r="M59">
-            <v>27.81</v>
-          </cell>
-          <cell r="N59">
-            <v>22.3</v>
-          </cell>
-          <cell r="O59">
-            <v>22.8</v>
-          </cell>
-          <cell r="P59">
-            <v>22.9</v>
-          </cell>
-          <cell r="X59" t="str">
-            <v>CPU</v>
-          </cell>
-          <cell r="Y59">
-            <v>48.86</v>
-          </cell>
-          <cell r="Z59">
-            <v>4.79</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60" t="str">
-            <v>#10
-drg</v>
-          </cell>
-          <cell r="K60">
-            <v>120.4</v>
-          </cell>
-          <cell r="L60">
-            <v>105.91</v>
-          </cell>
-          <cell r="M60">
-            <v>101.84</v>
-          </cell>
-          <cell r="N60">
-            <v>96</v>
-          </cell>
-          <cell r="O60">
-            <v>87.97</v>
-          </cell>
-          <cell r="P60">
-            <v>87.22</v>
-          </cell>
-          <cell r="X60" t="str">
-            <v>GPU</v>
-          </cell>
-          <cell r="Y60">
-            <v>49.06</v>
-          </cell>
-          <cell r="Z60">
-            <v>5.19</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61" t="str">
-            <v>#11
-Buda</v>
-          </cell>
-          <cell r="K61">
-            <v>46.3</v>
-          </cell>
-          <cell r="L61">
-            <v>47.83</v>
-          </cell>
-          <cell r="M61">
-            <v>41.32</v>
-          </cell>
-          <cell r="N61">
-            <v>38.299999999999997</v>
-          </cell>
-          <cell r="O61">
-            <v>37.130000000000003</v>
-          </cell>
-          <cell r="P61">
-            <v>35.6</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62" t="str">
-            <v>#12
-Lucy</v>
-          </cell>
-          <cell r="K62">
-            <v>61.7</v>
-          </cell>
-          <cell r="L62">
-            <v>53.65</v>
-          </cell>
-          <cell r="M62">
-            <v>54.25</v>
-          </cell>
-          <cell r="N62">
-            <v>50.9</v>
-          </cell>
-          <cell r="O62">
-            <v>48.86</v>
-          </cell>
-          <cell r="P62">
-            <v>49.06</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -10349,8 +9577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436D07ED-6439-43D2-9403-4BF5002283BA}">
   <dimension ref="B1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView topLeftCell="C9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10410,7 +9638,7 @@
       <c r="N2" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="63"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="62" t="s">
         <v>57</v>
       </c>
@@ -10656,7 +9884,7 @@
         <v>91</v>
       </c>
       <c r="D7" s="60"/>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="63" t="s">
         <v>116</v>
       </c>
       <c r="F7" s="60" t="s">
@@ -10708,7 +9936,7 @@
         <v>92</v>
       </c>
       <c r="D8" s="60"/>
-      <c r="E8" s="64"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="60" t="s">
         <v>3</v>
       </c>
@@ -10763,7 +9991,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="60"/>
-      <c r="E9" s="64"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="60" t="s">
         <v>4</v>
       </c>
@@ -11635,16 +10863,16 @@
       </c>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69" t="s">
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
       <c r="K49" t="s">
         <v>153</v>
       </c>
@@ -12735,6 +11963,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2529F582-12F9-4FAE-BD1D-DB64E7EC6B45}">
+  <dimension ref="B3:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>181.4</v>
+      </c>
+      <c r="D4">
+        <v>169.8</v>
+      </c>
+      <c r="E4" s="70">
+        <f>(D4-$C4)/$C4</f>
+        <v>-6.3947078280044062E-2</v>
+      </c>
+      <c r="F4">
+        <v>170.4</v>
+      </c>
+      <c r="G4" s="70">
+        <f>(F4-$C4)/$C4</f>
+        <v>-6.0639470782800436E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>26.4</v>
+      </c>
+      <c r="D5">
+        <v>20.7</v>
+      </c>
+      <c r="E5" s="70">
+        <f>(D5-$C5)/$C5</f>
+        <v>-0.21590909090909088</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5" s="70">
+        <f>(F5-$C5)/$C5</f>
+        <v>-0.35606060606060602</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M17"/>
   <sheetViews>
@@ -12757,26 +12057,26 @@
     <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
       <c r="B2" s="28"/>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="J2" s="66" t="s">
+      <c r="H2" s="67"/>
+      <c r="J2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66" t="s">
+      <c r="K2" s="67"/>
+      <c r="L2" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="66"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
@@ -13219,7 +12519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -13524,7 +12824,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -13535,7 +12835,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -13588,13 +12888,13 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="68" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="68" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
@@ -13602,11 +12902,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="18" t="s">
         <v>123</v>
       </c>

--- a/_draft0/tomoGPU.xlsx
+++ b/_draft0/tomoGPU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__TomoNV_Projects\Tomo_GPU2024\_draft0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE4330-8136-4E55-8871-477B84A8F775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4308EE1-624C-430B-927C-DCF0208BB7A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="19860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="형상별Mtotal" sheetId="5" r:id="rId1"/>
@@ -344,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="171">
   <si>
     <t>50x50x50</t>
   </si>
@@ -1108,6 +1108,62 @@
     <t>slicer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>GPU4/CPU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU4/CPU2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1
+Cube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2
+Sphr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3
+Cone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4
+B_2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6
+B_0.5x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7
+B/5k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9
+Mnk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10
+Drg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1118,7 +1174,7 @@
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,11 +1351,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1488,11 +1539,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1661,9 +1712,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1678,6 +1726,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1702,9 +1753,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2011,19 +2059,19 @@
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>#1
-cube</c:v>
+Cube</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>#2
-sphere</c:v>
+Sphr</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>#3
-cone</c:v>
+Cone</c:v>
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>#4
-Bx2</c:v>
+B_2x</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>#5
@@ -2031,7 +2079,7 @@
                   </c:pt>
                   <c:pt idx="25">
                     <c:v>#6
-Bx0.5</c:v>
+B_0.5x</c:v>
                   </c:pt>
                   <c:pt idx="30">
                     <c:v>#7
@@ -2043,11 +2091,11 @@
                   </c:pt>
                   <c:pt idx="40">
                     <c:v>#9
-mnk</c:v>
+Mnk</c:v>
                   </c:pt>
                   <c:pt idx="45">
                     <c:v>#10
-drg</c:v>
+Drg</c:v>
                   </c:pt>
                   <c:pt idx="50">
                     <c:v>#11
@@ -2334,19 +2382,19 @@
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>#1
-cube</c:v>
+Cube</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>#2
-sphere</c:v>
+Sphr</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>#3
-cone</c:v>
+Cone</c:v>
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>#4
-Bx2</c:v>
+B_2x</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>#5
@@ -2354,7 +2402,7 @@
                   </c:pt>
                   <c:pt idx="25">
                     <c:v>#6
-Bx0.5</c:v>
+B_0.5x</c:v>
                   </c:pt>
                   <c:pt idx="30">
                     <c:v>#7
@@ -2366,11 +2414,11 @@
                   </c:pt>
                   <c:pt idx="40">
                     <c:v>#9
-mnk</c:v>
+Mnk</c:v>
                   </c:pt>
                   <c:pt idx="45">
                     <c:v>#10
-drg</c:v>
+Drg</c:v>
                   </c:pt>
                   <c:pt idx="50">
                     <c:v>#11
@@ -3917,47 +3965,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20778680224027116"/>
-          <c:y val="0.94972970264158507"/>
-          <c:w val="0.58442639551945774"/>
-          <c:h val="5.0270297358414921E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5489,19 +5496,19 @@
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>#1
-cube</c:v>
+Cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#2
-sphere</c:v>
+Sphr</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#3
-cone</c:v>
+Cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#4
-Bx2</c:v>
+B_2x</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#5
@@ -5509,7 +5516,7 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#6
-Bx0.5</c:v>
+B_0.5x</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#7
@@ -5521,11 +5528,11 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#9
-mnk</c:v>
+Mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#10
-drg</c:v>
+Drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#11
@@ -5665,19 +5672,19 @@
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>#1
-cube</c:v>
+Cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#2
-sphere</c:v>
+Sphr</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#3
-cone</c:v>
+Cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#4
-Bx2</c:v>
+B_2x</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#5
@@ -5685,7 +5692,7 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#6
-Bx0.5</c:v>
+B_0.5x</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#7
@@ -5697,11 +5704,11 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#9
-mnk</c:v>
+Mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#10
-drg</c:v>
+Drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#11
@@ -5863,19 +5870,19 @@
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>#1
-cube</c:v>
+Cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#2
-sphere</c:v>
+Sphr</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#3
-cone</c:v>
+Cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#4
-Bx2</c:v>
+B_2x</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#5
@@ -5883,7 +5890,7 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#6
-Bx0.5</c:v>
+B_0.5x</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#7
@@ -5895,11 +5902,11 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#9
-mnk</c:v>
+Mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#10
-drg</c:v>
+Drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#11
@@ -6037,19 +6044,19 @@
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>#1
-cube</c:v>
+Cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#2
-sphere</c:v>
+Sphr</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#3
-cone</c:v>
+Cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#4
-Bx2</c:v>
+B_2x</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#5
@@ -6057,7 +6064,7 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#6
-Bx0.5</c:v>
+B_0.5x</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#7
@@ -6069,11 +6076,11 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#9
-mnk</c:v>
+Mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#10
-drg</c:v>
+Drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#11
@@ -6214,19 +6221,19 @@
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>#1
-cube</c:v>
+Cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#2
-sphere</c:v>
+Sphr</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#3
-cone</c:v>
+Cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#4
-Bx2</c:v>
+B_2x</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#5
@@ -6234,7 +6241,7 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#6
-Bx0.5</c:v>
+B_0.5x</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#7
@@ -6246,11 +6253,11 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#9
-mnk</c:v>
+Mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#10
-drg</c:v>
+Drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#11
@@ -6391,19 +6398,19 @@
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>#1
-cube</c:v>
+Cube</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#2
-sphere</c:v>
+Sphr</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#3
-cone</c:v>
+Cone</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#4
-Bx2</c:v>
+B_2x</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#5
@@ -6411,7 +6418,7 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#6
-Bx0.5</c:v>
+B_0.5x</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#7
@@ -6423,11 +6430,11 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#9
-mnk</c:v>
+Mnk</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#10
-drg</c:v>
+Drg</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#11
@@ -6832,6 +6839,1472 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0994773964843034E-2"/>
+          <c:y val="4.5272519625147105E-2"/>
+          <c:w val="0.92371949446135682"/>
+          <c:h val="0.78423522638710574"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW별속도!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3ACD-44B9-B9EE-7B6844829475}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW별속도!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+Cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+Sphr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+Cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+B_2x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+B_0.5x</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+Mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+Drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW별속도!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>397.47483599999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>390.44517300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>394.07504599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>726.33549800000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>695.41310299999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>621.19573000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390.05424599999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>372.64782300000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>392.538456</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>708.11813400000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>486.36354799999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>522.13234699999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3ACD-44B9-B9EE-7B6844829475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW별속도!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW별속도!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+Cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+Sphr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+Cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+B_2x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+B_0.5x</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+Mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+Drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW별속도!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>78.462999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.444996000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.511577000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.17354499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159.563131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154.3218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.765511000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.589000999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>231.30753200000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135.230996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144.118056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3ACD-44B9-B9EE-7B6844829475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW별속도!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C2D6F2"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C2D6F2"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3ACD-44B9-B9EE-7B6844829475}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW별속도!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+Cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+Sphr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+Cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+B_2x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+B_0.5x</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+Mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+Drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW별속도!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>235.02652699999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230.797279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294.80828000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>288.65893299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.95104500000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245.74983399999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229.26749000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227.37109799999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>234.18002100000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>327.41771799999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>264.48448300000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>303.27925099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3ACD-44B9-B9EE-7B6844829475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW별속도!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C2D6F2"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW별속도!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+Cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+Sphr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+Cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+B_2x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+B_0.5x</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+Mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+Drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW별속도!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>47.207138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.992707000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.453965999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.507868000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.412488000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.344835000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.118394000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.762058000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.631194999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.651523999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.733877</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.061312999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3ACD-44B9-B9EE-7B6844829475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW별속도!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C2D6F2"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW별속도!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+Cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+Sphr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+Cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+B_2x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+B_0.5x</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+Mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+Drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW별속도!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>19.735993000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.526415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.100653000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.044993000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.864273000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.539121999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.012808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.830888999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.637509999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.581313000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.172401000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.024286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3ACD-44B9-B9EE-7B6844829475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW별속도!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C2D6F2"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW별속도!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#1
+Cube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2
+Sphr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3
+Cone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4
+B_2x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5
+B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6
+B_0.5x</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7
+B/5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8
+B/1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9
+Mnk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10
+Drg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11
+Buda</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12
+Lucy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW별속도!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10.012051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.522000999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.404813000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.422428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.208766000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.700714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8182170000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7393470000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.012543000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.289018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.486274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.846999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3ACD-44B9-B9EE-7B6844829475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2019841376"/>
+        <c:axId val="291068448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2019841376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>→ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Mesh</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.86922294752520779"/>
+              <c:y val="0.93318716310182692"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291068448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291068448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                  <a:t>calculation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+                  <a:t> time[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9480598062727737E-3"/>
+              <c:y val="0.33389998248809033"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019841376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6953,6 +8426,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8995,6 +10508,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9097,16 +11113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>108584</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>215264</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9201,15 +11217,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
+      <xdr:colOff>127411</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>183776</xdr:rowOff>
+      <xdr:rowOff>181871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:colOff>667198</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>183463</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9242,15 +11258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>510210</xdr:colOff>
+      <xdr:colOff>514020</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>77000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>664478</xdr:colOff>
+      <xdr:colOff>668288</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>602974</xdr:rowOff>
+      <xdr:rowOff>228820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9270,6 +11286,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6379</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>87299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>387424</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90032</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23A0615-B973-4684-A4BC-4CC37BDE3FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9577,8 +11631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436D07ED-6439-43D2-9403-4BF5002283BA}">
   <dimension ref="B1:AE77"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9646,21 +11700,21 @@
       <c r="W2" t="str">
         <f>C4&amp;D4</f>
         <v>#1
-cube</v>
+Cube</v>
       </c>
     </row>
     <row r="3" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="61" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -9707,18 +11761,18 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B4" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="60"/>
+      <c r="C4" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="59"/>
       <c r="E4" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="59" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="7">
@@ -9765,18 +11819,18 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60" t="s">
+      <c r="C5" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="59" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7">
@@ -9823,18 +11877,18 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60" t="s">
+      <c r="C6" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="7">
@@ -9876,18 +11930,18 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B7" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="60"/>
+      <c r="C7" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="59"/>
       <c r="E7" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="7">
@@ -9925,19 +11979,19 @@
       <c r="W7" t="str">
         <f>C5&amp;D5</f>
         <v>#2
-sphere</v>
+Sphr</v>
       </c>
     </row>
-    <row r="8" spans="2:31" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="63"/>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="7">
@@ -9983,16 +12037,16 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="2:31" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="60"/>
+      <c r="C9" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="59"/>
       <c r="E9" s="63"/>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="7">
@@ -10038,18 +12092,18 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B10" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60" t="s">
+      <c r="C10" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="7">
@@ -10095,18 +12149,18 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="59" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="7">
@@ -10145,18 +12199,18 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B12" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60" t="s">
+      <c r="C12" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="59" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="7">
@@ -10193,21 +12247,21 @@
       <c r="W12" t="str">
         <f>C6&amp;D6</f>
         <v>#3
-cone</v>
+Cone</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B13" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60" t="s">
+      <c r="C13" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="59" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="7">
@@ -10253,18 +12307,18 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B14" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="48" t="s">
         <v>98</v>
       </c>
       <c r="D14" s="55"/>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="59" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="7">
@@ -10311,18 +12365,18 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:31" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B15" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="48" t="s">
         <v>99</v>
       </c>
       <c r="D15" s="55"/>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="59" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="7">
@@ -10379,7 +12433,7 @@
       <c r="W17" t="str">
         <f>C7&amp;D7</f>
         <v>#4
-Bx2</v>
+B_2x</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.4">
@@ -10485,7 +12539,7 @@
       <c r="W27" t="str">
         <f>C9&amp;D9</f>
         <v>#6
-Bx0.5</v>
+B_0.5x</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.4">
@@ -10644,7 +12698,7 @@
       <c r="W42" t="str">
         <f>C12&amp;D12</f>
         <v>#9
-mnk</v>
+Mnk</v>
       </c>
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.4">
@@ -10661,7 +12715,7 @@
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -10713,7 +12767,7 @@
       </c>
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="58" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="44" t="s">
@@ -10846,7 +12900,7 @@
       <c r="W47" t="str">
         <f>C13&amp;D13</f>
         <v>#10
-drg</v>
+Drg</v>
       </c>
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.4">
@@ -10944,7 +12998,7 @@
       <c r="B51" t="str">
         <f>C4</f>
         <v>#1
-cube</v>
+Cube</v>
       </c>
       <c r="C51" s="13">
         <f>G4</f>
@@ -11003,7 +13057,7 @@
       <c r="B52" t="str">
         <f t="shared" ref="B52:B62" si="2">C5</f>
         <v>#2
-sphere</v>
+Sphr</v>
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:C62" si="3">G5</f>
@@ -11063,7 +13117,7 @@
       <c r="B53" t="str">
         <f t="shared" si="2"/>
         <v>#3
-cone</v>
+Cone</v>
       </c>
       <c r="C53" s="13">
         <f t="shared" si="3"/>
@@ -11129,7 +13183,7 @@
       <c r="B54" t="str">
         <f t="shared" si="2"/>
         <v>#4
-Bx2</v>
+B_2x</v>
       </c>
       <c r="C54" s="13">
         <f t="shared" si="3"/>
@@ -11261,7 +13315,7 @@
       <c r="B56" t="str">
         <f t="shared" si="2"/>
         <v>#6
-Bx0.5</v>
+B_0.5x</v>
       </c>
       <c r="C56" s="13">
         <f t="shared" si="3"/>
@@ -11446,7 +13500,7 @@
       <c r="B59" t="str">
         <f t="shared" si="2"/>
         <v>#9
-mnk</v>
+Mnk</v>
       </c>
       <c r="C59" s="13">
         <f t="shared" si="3"/>
@@ -11512,7 +13566,7 @@
       <c r="B60" t="str">
         <f t="shared" si="2"/>
         <v>#10
-drg</v>
+Drg</v>
       </c>
       <c r="C60" s="13">
         <f t="shared" si="3"/>
@@ -11966,7 +14020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2529F582-12F9-4FAE-BD1D-DB64E7EC6B45}">
   <dimension ref="B3:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -11993,14 +14047,14 @@
       <c r="D4">
         <v>169.8</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="61">
         <f>(D4-$C4)/$C4</f>
         <v>-6.3947078280044062E-2</v>
       </c>
       <c r="F4">
         <v>170.4</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="61">
         <f>(F4-$C4)/$C4</f>
         <v>-6.0639470782800436E-2</v>
       </c>
@@ -12015,14 +14069,14 @@
       <c r="D5">
         <v>20.7</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="61">
         <f>(D5-$C5)/$C5</f>
         <v>-0.21590909090909088</v>
       </c>
       <c r="F5">
         <v>17</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="61">
         <f>(F5-$C5)/$C5</f>
         <v>-0.35606060606060602</v>
       </c>
@@ -12038,11 +14092,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M17"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12521,10 +14575,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12536,34 +14590,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B1" s="48" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>92</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>95</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="L1" s="48" t="s">
         <v>98</v>
@@ -12878,7 +14932,7 @@
       <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="57" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12935,7 +14989,7 @@
       <c r="C21" s="4">
         <v>1920</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12949,7 +15003,7 @@
       <c r="C22" s="4">
         <v>8704</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12963,7 +15017,7 @@
       <c r="C23" s="4">
         <v>16384</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -13008,8 +15062,135 @@
         <v>135.31586100000001</v>
       </c>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L41" s="1"/>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="N36" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37">
+        <f>B2/B7</f>
+        <v>39.69964156195369</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:M37" si="0">C2/C7</f>
+        <v>37.107501985601409</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>31.767915082637678</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>58.469688695317856</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="0"/>
+        <v>62.041896761873694</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>58.051801963868961</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>39.727604920526808</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>38.262095292425663</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>39.204671180937744</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>49.556808872380174</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>38.951856094139849</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>40.642359122157629</v>
+      </c>
+      <c r="N37" s="21">
+        <f>MAX(B37:M37)</f>
+        <v>62.041896761873694</v>
+      </c>
+      <c r="O37" s="21">
+        <f>AVERAGE(B37:N37)</f>
+        <v>45.809672176591903</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38">
+        <f>B3/B7</f>
+        <v>7.8368558050693107</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:M38" si="1">C3/C7</f>
+        <v>7.7404474681194202</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>6.893419272019659</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>14.986888634009389</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>14.235566252342139</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>14.421635789910841</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>8.3676089049569793</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>7.9846740238334251</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>9.347175937221941</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="1"/>
+        <v>16.187783653152373</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>10.830372295209925</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>11.218032787268061</v>
+      </c>
+      <c r="N38" s="21">
+        <f>MAX(B38:M38)</f>
+        <v>16.187783653152373</v>
+      </c>
+      <c r="O38" s="21">
+        <f>AVERAGE(B38:N38)</f>
+        <v>11.249095728943523</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
